--- a/UDMI-CREATION/DISTECH CONTROLS/llbms_hli.xlsx
+++ b/UDMI-CREATION/DISTECH CONTROLS/llbms_hli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DISTECH CONTROLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F8D5D3-CA56-4494-8C7E-C632603C76CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF948A7A-E687-4869-9DF4-4465C5FF013D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1427,13 +1427,13 @@
     <t>hertz</t>
   </si>
   <si>
-    <t>dgtk_01_volume_sensor</t>
-  </si>
-  <si>
     <t>1.4.1</t>
   </si>
   <si>
     <t>749afd33-f0a3-d7e0-7089-f7d4e53f2c61</t>
+  </si>
+  <si>
+    <t>dgtk_01_percentage_sensor</t>
   </si>
 </sst>
 </file>
@@ -2191,7 +2191,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -2212,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
@@ -4131,8 +4131,8 @@
   <dimension ref="A1:G1414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C405" sqref="C405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9176,7 +9176,7 @@
         <v>59</v>
       </c>
       <c r="B397" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C397" s="8" t="s">
         <v>420</v>
@@ -9189,7 +9189,7 @@
         <v>59</v>
       </c>
       <c r="B398" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C398" s="8" t="s">
         <v>420</v>
@@ -9201,7 +9201,7 @@
         <v>59</v>
       </c>
       <c r="B399" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C399" s="8" t="s">
         <v>420</v>
@@ -9213,7 +9213,7 @@
         <v>59</v>
       </c>
       <c r="B400" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C400" s="8" t="s">
         <v>420</v>
@@ -9226,7 +9226,7 @@
         <v>59</v>
       </c>
       <c r="B401" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C401" s="8" t="s">
         <v>420</v>
@@ -9239,7 +9239,7 @@
         <v>59</v>
       </c>
       <c r="B402" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C402" s="8" t="s">
         <v>420</v>

--- a/UDMI-CREATION/DISTECH CONTROLS/llbms_hli.xlsx
+++ b/UDMI-CREATION/DISTECH CONTROLS/llbms_hli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DISTECH CONTROLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF948A7A-E687-4869-9DF4-4465C5FF013D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC49E41-5570-4671-80BE-410B398FD9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="469">
   <si>
     <t>dbo.section</t>
   </si>
@@ -1434,6 +1434,12 @@
   </si>
   <si>
     <t>dgtk_01_percentage_sensor</t>
+  </si>
+  <si>
+    <t>cdws_com_return_water_temperature_sensor</t>
+  </si>
+  <si>
+    <t>cdws_com_supply_water_temperature_sensor</t>
   </si>
 </sst>
 </file>
@@ -4131,8 +4137,8 @@
   <dimension ref="A1:G1414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C405" sqref="C405"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5092,7 +5098,7 @@
         <v>59</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>132</v>
+        <v>467</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>57</v>
@@ -5105,7 +5111,7 @@
         <v>59</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>133</v>
+        <v>468</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>57</v>

--- a/UDMI-CREATION/DISTECH CONTROLS/llbms_hli.xlsx
+++ b/UDMI-CREATION/DISTECH CONTROLS/llbms_hli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DISTECH CONTROLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC49E41-5570-4671-80BE-410B398FD9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46796C08-7F5B-47DD-8541-5521F0309E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="479">
   <si>
     <t>dbo.section</t>
   </si>
@@ -1440,6 +1440,36 @@
   </si>
   <si>
     <t>cdws_com_supply_water_temperature_sensor</t>
+  </si>
+  <si>
+    <t>ach_01_supply_water_temperature_setpoint</t>
+  </si>
+  <si>
+    <t>ach_01_control_mode</t>
+  </si>
+  <si>
+    <t>pchwp_01_control_mode</t>
+  </si>
+  <si>
+    <t>pchwp_02_control_mode</t>
+  </si>
+  <si>
+    <t>pchwp_03_control_mode</t>
+  </si>
+  <si>
+    <t>pchwp_04_control_mode</t>
+  </si>
+  <si>
+    <t>pchwp_05_control_mode</t>
+  </si>
+  <si>
+    <t>cdwp_01_control_mode</t>
+  </si>
+  <si>
+    <t>cdwp_02_control_mode</t>
+  </si>
+  <si>
+    <t>cdwp_03_control_mode</t>
   </si>
 </sst>
 </file>
@@ -4134,11 +4164,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1414"/>
+  <dimension ref="A1:G1424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4596,11 +4626,12 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>415</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4608,11 +4639,12 @@
         <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>414</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4620,12 +4652,11 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="D36" s="7"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -4633,12 +4664,11 @@
         <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D37" s="7"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -4646,7 +4676,7 @@
         <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>415</v>
@@ -4659,11 +4689,12 @@
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -4671,11 +4702,12 @@
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -4683,12 +4715,11 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="7"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4696,7 +4727,7 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
@@ -4708,11 +4739,12 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
       </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4720,12 +4752,11 @@
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="7"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4733,12 +4764,11 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="7"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -4746,7 +4776,7 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
         <v>54</v>
@@ -4759,11 +4789,12 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
       </c>
+      <c r="D47" s="7"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -4771,38 +4802,36 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
         <v>54</v>
       </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="7"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="7"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4810,12 +4839,11 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>471</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="7"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4823,7 +4851,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>472</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -4835,7 +4863,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>473</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
@@ -4847,12 +4875,11 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>474</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="7"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4860,12 +4887,11 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>475</v>
       </c>
       <c r="C55" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="7"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4873,12 +4899,11 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>476</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="7"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4886,7 +4911,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>477</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
@@ -4898,81 +4923,83 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>478</v>
       </c>
       <c r="C58" t="s">
         <v>54</v>
       </c>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
         <v>54</v>
       </c>
+      <c r="D59" s="7"/>
       <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>120</v>
+      <c r="B60" t="s">
+        <v>110</v>
       </c>
       <c r="C60" t="s">
         <v>54</v>
       </c>
+      <c r="D60" s="7"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>416</v>
-      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="7"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>122</v>
+      <c r="B62" t="s">
+        <v>112</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="7"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>123</v>
+      <c r="B63" t="s">
+        <v>113</v>
       </c>
       <c r="C63" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="7"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>124</v>
+      <c r="B64" t="s">
+        <v>114</v>
       </c>
       <c r="C64" t="s">
         <v>54</v>
@@ -4980,67 +5007,66 @@
       <c r="D64" s="7"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>125</v>
+      <c r="B65" t="s">
+        <v>115</v>
       </c>
       <c r="C65" t="s">
         <v>54</v>
       </c>
+      <c r="D65" s="7"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>126</v>
+      <c r="B66" t="s">
+        <v>116</v>
       </c>
       <c r="C66" t="s">
         <v>54</v>
       </c>
+      <c r="D66" s="7"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>127</v>
+      <c r="B67" t="s">
+        <v>117</v>
       </c>
       <c r="C67" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="7"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>128</v>
+      <c r="B68" t="s">
+        <v>118</v>
       </c>
       <c r="C68" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="7"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>129</v>
+      <c r="B69" t="s">
+        <v>119</v>
       </c>
       <c r="C69" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="7"/>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5048,7 +5074,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
         <v>54</v>
@@ -5060,48 +5086,48 @@
         <v>59</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" t="s">
-        <v>54</v>
+        <v>121</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>57</v>
+      <c r="B72" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>57</v>
+      <c r="B73" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>57</v>
+      <c r="B74" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="8"/>
@@ -5110,11 +5136,11 @@
       <c r="A75" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B75" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>57</v>
+      <c r="B75" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
       </c>
       <c r="E75" s="8"/>
     </row>
@@ -5123,12 +5149,11 @@
         <v>59</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="D76" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5136,10 +5161,10 @@
         <v>59</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>57</v>
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
+        <v>54</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="8"/>
@@ -5148,11 +5173,11 @@
       <c r="A78" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>57</v>
+      <c r="B78" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="8"/>
@@ -5162,10 +5187,10 @@
         <v>59</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>417</v>
+        <v>129</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="8"/>
@@ -5175,10 +5200,10 @@
         <v>59</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>419</v>
+        <v>130</v>
+      </c>
+      <c r="C80" t="s">
+        <v>54</v>
       </c>
       <c r="E80" s="8"/>
     </row>
@@ -5187,19 +5212,19 @@
         <v>59</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>418</v>
+        <v>131</v>
+      </c>
+      <c r="C81" t="s">
+        <v>54</v>
       </c>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>140</v>
+      <c r="B82" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>57</v>
@@ -5207,12 +5232,12 @@
       <c r="D82" s="7"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>141</v>
+      <c r="B83" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>57</v>
@@ -5220,15 +5245,15 @@
       <c r="D83" s="7"/>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>417</v>
+      <c r="B84" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="8"/>
@@ -5237,11 +5262,11 @@
       <c r="A85" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B85" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>419</v>
+      <c r="B85" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="E85" s="8"/>
     </row>
@@ -5250,11 +5275,12 @@
         <v>59</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>418</v>
       </c>
+      <c r="D86" s="7"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5262,7 +5288,7 @@
         <v>59</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>57</v>
@@ -5275,7 +5301,7 @@
         <v>59</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>57</v>
@@ -5288,7 +5314,7 @@
         <v>59</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>417</v>
@@ -5301,7 +5327,7 @@
         <v>59</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>419</v>
@@ -5313,7 +5339,7 @@
         <v>59</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>418</v>
@@ -5325,7 +5351,7 @@
         <v>59</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>57</v>
@@ -5338,7 +5364,7 @@
         <v>59</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>57</v>
@@ -5351,7 +5377,7 @@
         <v>59</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>417</v>
@@ -5364,12 +5390,11 @@
         <v>59</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D95" s="7"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5377,12 +5402,11 @@
         <v>59</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D96" s="7"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5390,7 +5414,7 @@
         <v>59</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>57</v>
@@ -5403,11 +5427,12 @@
         <v>59</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>57</v>
       </c>
+      <c r="D98" s="7"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5415,11 +5440,12 @@
         <v>59</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>417</v>
       </c>
+      <c r="D99" s="7"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5427,12 +5453,11 @@
         <v>59</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D100" s="7"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5440,12 +5465,11 @@
         <v>59</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D101" s="7"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5453,7 +5477,7 @@
         <v>59</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>57</v>
@@ -5466,11 +5490,12 @@
         <v>59</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>57</v>
       </c>
+      <c r="D103" s="7"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5478,11 +5503,12 @@
         <v>59</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>417</v>
       </c>
+      <c r="D104" s="7"/>
       <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5490,7 +5516,7 @@
         <v>59</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>419</v>
@@ -5503,7 +5529,7 @@
         <v>59</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>418</v>
@@ -5516,7 +5542,7 @@
         <v>59</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>57</v>
@@ -5529,7 +5555,7 @@
         <v>59</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>57</v>
@@ -5541,7 +5567,7 @@
         <v>59</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>417</v>
@@ -5553,7 +5579,7 @@
         <v>59</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>419</v>
@@ -5566,7 +5592,7 @@
         <v>59</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>418</v>
@@ -5579,7 +5605,7 @@
         <v>59</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>57</v>
@@ -5592,7 +5618,7 @@
         <v>59</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>57</v>
@@ -5604,7 +5630,7 @@
         <v>59</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>417</v>
@@ -5616,11 +5642,12 @@
         <v>59</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>419</v>
       </c>
+      <c r="D115" s="7"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5628,11 +5655,12 @@
         <v>59</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>418</v>
       </c>
+      <c r="D116" s="7"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5640,11 +5668,12 @@
         <v>59</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>57</v>
       </c>
+      <c r="D117" s="7"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5652,12 +5681,11 @@
         <v>59</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D118" s="7"/>
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5665,12 +5693,11 @@
         <v>59</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D119" s="7"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5678,7 +5705,7 @@
         <v>59</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>419</v>
@@ -5691,11 +5718,12 @@
         <v>59</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>418</v>
       </c>
+      <c r="D121" s="7"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5703,11 +5731,12 @@
         <v>59</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>57</v>
       </c>
+      <c r="D122" s="7"/>
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5715,12 +5744,11 @@
         <v>59</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D123" s="7"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5728,12 +5756,11 @@
         <v>59</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D124" s="7"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5741,12 +5768,11 @@
         <v>59</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D125" s="7"/>
       <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5754,7 +5780,7 @@
         <v>59</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>418</v>
@@ -5766,7 +5792,7 @@
         <v>59</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>57</v>
@@ -5778,7 +5804,7 @@
         <v>59</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>57</v>
@@ -5791,7 +5817,7 @@
         <v>59</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>417</v>
@@ -5804,7 +5830,7 @@
         <v>59</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>419</v>
@@ -5817,7 +5843,7 @@
         <v>59</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>418</v>
@@ -5829,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>57</v>
@@ -5841,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>57</v>
@@ -5854,7 +5880,7 @@
         <v>59</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>417</v>
@@ -5867,7 +5893,7 @@
         <v>59</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>419</v>
@@ -5880,12 +5906,11 @@
         <v>59</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D136" s="7"/>
       <c r="E136" s="8"/>
     </row>
     <row r="137" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5893,12 +5918,11 @@
         <v>59</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D137" s="7"/>
       <c r="E137" s="8"/>
     </row>
     <row r="138" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5906,7 +5930,7 @@
         <v>59</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>57</v>
@@ -5919,11 +5943,12 @@
         <v>59</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>417</v>
       </c>
+      <c r="D139" s="7"/>
       <c r="E139" s="8"/>
     </row>
     <row r="140" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5931,11 +5956,12 @@
         <v>59</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C140" s="19" t="s">
         <v>419</v>
       </c>
+      <c r="D140" s="7"/>
       <c r="E140" s="8"/>
     </row>
     <row r="141" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5943,12 +5969,11 @@
         <v>59</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D141" s="7"/>
       <c r="E141" s="8"/>
     </row>
     <row r="142" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5956,12 +5981,11 @@
         <v>59</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D142" s="7"/>
       <c r="E142" s="8"/>
     </row>
     <row r="143" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5969,7 +5993,7 @@
         <v>59</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>57</v>
@@ -5982,11 +6006,12 @@
         <v>59</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>417</v>
       </c>
+      <c r="D144" s="7"/>
       <c r="E144" s="8"/>
     </row>
     <row r="145" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5994,11 +6019,12 @@
         <v>59</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>419</v>
       </c>
+      <c r="D145" s="7"/>
       <c r="E145" s="8"/>
     </row>
     <row r="146" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6006,7 +6032,7 @@
         <v>59</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>418</v>
@@ -6019,7 +6045,7 @@
         <v>59</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>57</v>
@@ -6032,7 +6058,7 @@
         <v>59</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>57</v>
@@ -6045,7 +6071,7 @@
         <v>59</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>417</v>
@@ -6057,7 +6083,7 @@
         <v>59</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>419</v>
@@ -6069,7 +6095,7 @@
         <v>59</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>418</v>
@@ -6082,7 +6108,7 @@
         <v>59</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>57</v>
@@ -6095,7 +6121,7 @@
         <v>59</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>57</v>
@@ -6108,7 +6134,7 @@
         <v>59</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>417</v>
@@ -6120,7 +6146,7 @@
         <v>59</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>419</v>
@@ -6132,11 +6158,12 @@
         <v>59</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>418</v>
       </c>
+      <c r="D156" s="7"/>
       <c r="E156" s="8"/>
     </row>
     <row r="157" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6144,11 +6171,12 @@
         <v>59</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>57</v>
       </c>
+      <c r="D157" s="7"/>
       <c r="E157" s="8"/>
     </row>
     <row r="158" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6156,11 +6184,12 @@
         <v>59</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>57</v>
       </c>
+      <c r="D158" s="7"/>
       <c r="E158" s="8"/>
     </row>
     <row r="159" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6168,12 +6197,11 @@
         <v>59</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D159" s="7"/>
       <c r="E159" s="8"/>
     </row>
     <row r="160" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6181,12 +6209,11 @@
         <v>59</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D160" s="7"/>
       <c r="E160" s="8"/>
     </row>
     <row r="161" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6194,7 +6221,7 @@
         <v>59</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>418</v>
@@ -6207,11 +6234,12 @@
         <v>59</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>57</v>
       </c>
+      <c r="D162" s="7"/>
       <c r="E162" s="8"/>
     </row>
     <row r="163" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6219,11 +6247,12 @@
         <v>59</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>57</v>
       </c>
+      <c r="D163" s="7"/>
       <c r="E163" s="8"/>
     </row>
     <row r="164" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6231,12 +6260,11 @@
         <v>59</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D164" s="7"/>
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6244,12 +6272,11 @@
         <v>59</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C165" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D165" s="7"/>
       <c r="E165" s="8"/>
     </row>
     <row r="166" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6257,12 +6284,11 @@
         <v>59</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D166" s="7"/>
       <c r="E166" s="8"/>
     </row>
     <row r="167" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6270,7 +6296,7 @@
         <v>59</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>57</v>
@@ -6282,7 +6308,7 @@
         <v>59</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>57</v>
@@ -6294,7 +6320,7 @@
         <v>59</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>417</v>
@@ -6307,7 +6333,7 @@
         <v>59</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C170" s="19" t="s">
         <v>419</v>
@@ -6315,131 +6341,130 @@
       <c r="D170" s="7"/>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B171" t="s">
-        <v>229</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>419</v>
+      <c r="B171" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B172" t="s">
-        <v>230</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>420</v>
+      <c r="B172" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B173" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>420</v>
+      <c r="B173" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="E173" s="8"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>419</v>
+      <c r="B174" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B175" t="s">
-        <v>231</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>414</v>
+      <c r="B175" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="8"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B176" t="s">
-        <v>232</v>
-      </c>
-      <c r="C176" t="s">
-        <v>54</v>
+      <c r="B176" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="8"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B177" t="s">
-        <v>233</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="D177" s="7"/>
+      <c r="B177" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B178" t="s">
-        <v>234</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="D178" s="7"/>
+      <c r="B178" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B179" t="s">
-        <v>235</v>
-      </c>
-      <c r="C179" t="s">
-        <v>54</v>
+      <c r="B179" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B180" t="s">
-        <v>236</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>415</v>
-      </c>
+      <c r="B180" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D180" s="7"/>
       <c r="E180" s="8"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -6447,11 +6472,12 @@
         <v>59</v>
       </c>
       <c r="B181" t="s">
-        <v>237</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>414</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D181" s="7"/>
       <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -6459,36 +6485,34 @@
         <v>59</v>
       </c>
       <c r="B182" t="s">
-        <v>238</v>
-      </c>
-      <c r="C182" t="s">
-        <v>54</v>
-      </c>
-      <c r="D182" s="7"/>
+        <v>230</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>420</v>
+      </c>
       <c r="E182" s="8"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B183" t="s">
-        <v>239</v>
+      <c r="B183" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="D183" s="7"/>
+        <v>420</v>
+      </c>
       <c r="E183" s="8"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B184" t="s">
-        <v>240</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>414</v>
+      <c r="B184" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="8"/>
@@ -6498,11 +6522,12 @@
         <v>59</v>
       </c>
       <c r="B185" t="s">
-        <v>241</v>
-      </c>
-      <c r="C185" t="s">
-        <v>54</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D185" s="7"/>
       <c r="E185" s="8"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -6510,11 +6535,12 @@
         <v>59</v>
       </c>
       <c r="B186" t="s">
-        <v>242</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>415</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C186" t="s">
+        <v>54</v>
+      </c>
+      <c r="D186" s="7"/>
       <c r="E186" s="8"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -6522,10 +6548,10 @@
         <v>59</v>
       </c>
       <c r="B187" t="s">
-        <v>243</v>
-      </c>
-      <c r="C187" t="s">
-        <v>54</v>
+        <v>233</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="8"/>
@@ -6535,10 +6561,10 @@
         <v>59</v>
       </c>
       <c r="B188" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="8"/>
@@ -6548,10 +6574,10 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>245</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>56</v>
+        <v>235</v>
+      </c>
+      <c r="C189" t="s">
+        <v>54</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="8"/>
@@ -6560,11 +6586,11 @@
       <c r="A190" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B190" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>416</v>
+      <c r="B190" t="s">
+        <v>236</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="E190" s="8"/>
     </row>
@@ -6573,7 +6599,7 @@
         <v>59</v>
       </c>
       <c r="B191" t="s">
-        <v>458</v>
+        <v>237</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>414</v>
@@ -6585,7 +6611,7 @@
         <v>59</v>
       </c>
       <c r="B192" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C192" t="s">
         <v>54</v>
@@ -6598,10 +6624,10 @@
         <v>59</v>
       </c>
       <c r="B193" t="s">
-        <v>248</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>56</v>
+        <v>239</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="8"/>
@@ -6611,10 +6637,10 @@
         <v>59</v>
       </c>
       <c r="B194" t="s">
-        <v>249</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>415</v>
+        <v>240</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="8"/>
@@ -6624,12 +6650,11 @@
         <v>59</v>
       </c>
       <c r="B195" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C195" t="s">
         <v>54</v>
       </c>
-      <c r="D195" s="7"/>
       <c r="E195" s="8"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -6637,12 +6662,11 @@
         <v>59</v>
       </c>
       <c r="B196" t="s">
-        <v>424</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D196" s="7"/>
+        <v>242</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="E196" s="8"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -6650,10 +6674,10 @@
         <v>59</v>
       </c>
       <c r="B197" t="s">
-        <v>425</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>56</v>
+        <v>243</v>
+      </c>
+      <c r="C197" t="s">
+        <v>54</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="8"/>
@@ -6662,11 +6686,11 @@
       <c r="A198" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B198" s="19" t="s">
-        <v>426</v>
+      <c r="B198" t="s">
+        <v>244</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="8"/>
@@ -6675,11 +6699,11 @@
       <c r="A199" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B199" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>414</v>
+      <c r="B199" t="s">
+        <v>245</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="8"/>
@@ -6688,13 +6712,12 @@
       <c r="A200" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B200" t="s">
-        <v>427</v>
-      </c>
-      <c r="C200" t="s">
-        <v>54</v>
-      </c>
-      <c r="D200" s="7"/>
+      <c r="B200" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>416</v>
+      </c>
       <c r="E200" s="8"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -6702,12 +6725,11 @@
         <v>59</v>
       </c>
       <c r="B201" t="s">
-        <v>428</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D201" s="7"/>
+        <v>458</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>414</v>
+      </c>
       <c r="E201" s="8"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -6715,10 +6737,10 @@
         <v>59</v>
       </c>
       <c r="B202" t="s">
-        <v>429</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>415</v>
+        <v>247</v>
+      </c>
+      <c r="C202" t="s">
+        <v>54</v>
       </c>
       <c r="D202" s="7"/>
       <c r="E202" s="8"/>
@@ -6728,10 +6750,10 @@
         <v>59</v>
       </c>
       <c r="B203" t="s">
-        <v>430</v>
-      </c>
-      <c r="C203" t="s">
-        <v>54</v>
+        <v>248</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D203" s="7"/>
       <c r="E203" s="8"/>
@@ -6741,10 +6763,10 @@
         <v>59</v>
       </c>
       <c r="B204" t="s">
-        <v>431</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>423</v>
+        <v>249</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="8"/>
@@ -6754,10 +6776,10 @@
         <v>59</v>
       </c>
       <c r="B205" t="s">
-        <v>432</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>56</v>
+        <v>250</v>
+      </c>
+      <c r="C205" t="s">
+        <v>54</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="8"/>
@@ -6766,11 +6788,11 @@
       <c r="A206" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B206" s="19" t="s">
-        <v>433</v>
+      <c r="B206" t="s">
+        <v>424</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D206" s="7"/>
       <c r="E206" s="8"/>
@@ -6780,10 +6802,10 @@
         <v>59</v>
       </c>
       <c r="B207" t="s">
-        <v>459</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>414</v>
+        <v>425</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D207" s="7"/>
       <c r="E207" s="8"/>
@@ -6792,11 +6814,11 @@
       <c r="A208" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B208" t="s">
-        <v>434</v>
-      </c>
-      <c r="C208" t="s">
-        <v>54</v>
+      <c r="B208" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="D208" s="7"/>
       <c r="E208" s="8"/>
@@ -6805,11 +6827,11 @@
       <c r="A209" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B209" t="s">
-        <v>435</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>56</v>
+      <c r="B209" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="8"/>
@@ -6819,10 +6841,10 @@
         <v>59</v>
       </c>
       <c r="B210" t="s">
-        <v>436</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
+      </c>
+      <c r="C210" t="s">
+        <v>54</v>
       </c>
       <c r="D210" s="7"/>
       <c r="E210" s="8"/>
@@ -6832,10 +6854,10 @@
         <v>59</v>
       </c>
       <c r="B211" t="s">
-        <v>437</v>
-      </c>
-      <c r="C211" t="s">
-        <v>54</v>
+        <v>428</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="8"/>
@@ -6845,10 +6867,10 @@
         <v>59</v>
       </c>
       <c r="B212" t="s">
-        <v>438</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>423</v>
+        <v>429</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="D212" s="7"/>
       <c r="E212" s="8"/>
@@ -6858,10 +6880,10 @@
         <v>59</v>
       </c>
       <c r="B213" t="s">
-        <v>439</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>56</v>
+        <v>430</v>
+      </c>
+      <c r="C213" t="s">
+        <v>54</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="8"/>
@@ -6870,11 +6892,11 @@
       <c r="A214" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B214" s="19" t="s">
-        <v>440</v>
+      <c r="B214" t="s">
+        <v>431</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D214" s="7"/>
       <c r="E214" s="8"/>
@@ -6884,10 +6906,10 @@
         <v>59</v>
       </c>
       <c r="B215" t="s">
-        <v>460</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>414</v>
+        <v>432</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D215" s="7"/>
       <c r="E215" s="8"/>
@@ -6896,11 +6918,11 @@
       <c r="A216" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B216" t="s">
-        <v>441</v>
-      </c>
-      <c r="C216" t="s">
-        <v>54</v>
+      <c r="B216" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="D216" s="7"/>
       <c r="E216" s="8"/>
@@ -6910,10 +6932,10 @@
         <v>59</v>
       </c>
       <c r="B217" t="s">
-        <v>442</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>56</v>
+        <v>459</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="D217" s="7"/>
       <c r="E217" s="8"/>
@@ -6923,10 +6945,10 @@
         <v>59</v>
       </c>
       <c r="B218" t="s">
-        <v>443</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
+      </c>
+      <c r="C218" t="s">
+        <v>54</v>
       </c>
       <c r="D218" s="7"/>
       <c r="E218" s="8"/>
@@ -6936,10 +6958,10 @@
         <v>59</v>
       </c>
       <c r="B219" t="s">
-        <v>251</v>
-      </c>
-      <c r="C219" t="s">
-        <v>54</v>
+        <v>435</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D219" s="7"/>
       <c r="E219" s="8"/>
@@ -6949,10 +6971,10 @@
         <v>59</v>
       </c>
       <c r="B220" t="s">
-        <v>444</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>423</v>
+        <v>436</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="8"/>
@@ -6962,10 +6984,10 @@
         <v>59</v>
       </c>
       <c r="B221" t="s">
-        <v>445</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>56</v>
+        <v>437</v>
+      </c>
+      <c r="C221" t="s">
+        <v>54</v>
       </c>
       <c r="D221" s="7"/>
       <c r="E221" s="8"/>
@@ -6974,11 +6996,11 @@
       <c r="A222" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B222" s="19" t="s">
-        <v>446</v>
+      <c r="B222" t="s">
+        <v>438</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D222" s="7"/>
       <c r="E222" s="8"/>
@@ -6988,10 +7010,10 @@
         <v>59</v>
       </c>
       <c r="B223" t="s">
-        <v>461</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>414</v>
+        <v>439</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D223" s="7"/>
       <c r="E223" s="8"/>
@@ -7000,11 +7022,11 @@
       <c r="A224" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B224" t="s">
-        <v>447</v>
-      </c>
-      <c r="C224" t="s">
-        <v>54</v>
+      <c r="B224" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="D224" s="7"/>
       <c r="E224" s="8"/>
@@ -7014,10 +7036,10 @@
         <v>59</v>
       </c>
       <c r="B225" t="s">
-        <v>448</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>56</v>
+        <v>460</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="D225" s="7"/>
       <c r="E225" s="8"/>
@@ -7027,10 +7049,10 @@
         <v>59</v>
       </c>
       <c r="B226" t="s">
-        <v>449</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>415</v>
+        <v>441</v>
+      </c>
+      <c r="C226" t="s">
+        <v>54</v>
       </c>
       <c r="D226" s="7"/>
       <c r="E226" s="8"/>
@@ -7040,10 +7062,10 @@
         <v>59</v>
       </c>
       <c r="B227" t="s">
-        <v>252</v>
-      </c>
-      <c r="C227" t="s">
-        <v>54</v>
+        <v>442</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D227" s="7"/>
       <c r="E227" s="8"/>
@@ -7053,10 +7075,10 @@
         <v>59</v>
       </c>
       <c r="B228" t="s">
-        <v>451</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>423</v>
+        <v>443</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="D228" s="7"/>
       <c r="E228" s="8"/>
@@ -7066,10 +7088,10 @@
         <v>59</v>
       </c>
       <c r="B229" t="s">
-        <v>452</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>56</v>
+        <v>251</v>
+      </c>
+      <c r="C229" t="s">
+        <v>54</v>
       </c>
       <c r="D229" s="7"/>
       <c r="E229" s="8"/>
@@ -7078,11 +7100,11 @@
       <c r="A230" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B230" s="19" t="s">
-        <v>453</v>
+      <c r="B230" t="s">
+        <v>444</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D230" s="7"/>
       <c r="E230" s="8"/>
@@ -7091,11 +7113,11 @@
       <c r="A231" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B231" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>414</v>
+      <c r="B231" t="s">
+        <v>445</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D231" s="7"/>
       <c r="E231" s="8"/>
@@ -7104,11 +7126,11 @@
       <c r="A232" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B232" t="s">
-        <v>455</v>
-      </c>
-      <c r="C232" t="s">
-        <v>54</v>
+      <c r="B232" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="D232" s="7"/>
       <c r="E232" s="8"/>
@@ -7118,10 +7140,10 @@
         <v>59</v>
       </c>
       <c r="B233" t="s">
-        <v>456</v>
-      </c>
-      <c r="C233" s="16" t="s">
-        <v>56</v>
+        <v>461</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="D233" s="7"/>
       <c r="E233" s="8"/>
@@ -7131,10 +7153,10 @@
         <v>59</v>
       </c>
       <c r="B234" t="s">
-        <v>457</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>415</v>
+        <v>447</v>
+      </c>
+      <c r="C234" t="s">
+        <v>54</v>
       </c>
       <c r="D234" s="7"/>
       <c r="E234" s="8"/>
@@ -7143,11 +7165,11 @@
       <c r="A235" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B235" s="7" t="s">
-        <v>253</v>
+      <c r="B235" t="s">
+        <v>448</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D235" s="7"/>
       <c r="E235" s="8"/>
@@ -7157,10 +7179,10 @@
         <v>59</v>
       </c>
       <c r="B236" t="s">
-        <v>254</v>
-      </c>
-      <c r="C236" s="16" t="s">
-        <v>55</v>
+        <v>449</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="D236" s="7"/>
       <c r="E236" s="8"/>
@@ -7170,7 +7192,7 @@
         <v>59</v>
       </c>
       <c r="B237" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C237" t="s">
         <v>54</v>
@@ -7183,11 +7205,12 @@
         <v>59</v>
       </c>
       <c r="B238" t="s">
-        <v>256</v>
-      </c>
-      <c r="C238" t="s">
-        <v>54</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D238" s="7"/>
       <c r="E238" s="8"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -7195,22 +7218,23 @@
         <v>59</v>
       </c>
       <c r="B239" t="s">
-        <v>257</v>
-      </c>
-      <c r="C239" t="s">
-        <v>54</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D239" s="7"/>
       <c r="E239" s="8"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B240" t="s">
-        <v>258</v>
-      </c>
-      <c r="C240" t="s">
-        <v>54</v>
+      <c r="B240" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="D240" s="7"/>
       <c r="E240" s="8"/>
@@ -7219,11 +7243,11 @@
       <c r="A241" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B241" t="s">
-        <v>259</v>
-      </c>
-      <c r="C241" t="s">
-        <v>54</v>
+      <c r="B241" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="D241" s="7"/>
       <c r="E241" s="8"/>
@@ -7233,7 +7257,7 @@
         <v>59</v>
       </c>
       <c r="B242" t="s">
-        <v>260</v>
+        <v>455</v>
       </c>
       <c r="C242" t="s">
         <v>54</v>
@@ -7246,11 +7270,12 @@
         <v>59</v>
       </c>
       <c r="B243" t="s">
-        <v>261</v>
-      </c>
-      <c r="C243" t="s">
-        <v>54</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D243" s="7"/>
       <c r="E243" s="8"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -7258,22 +7283,23 @@
         <v>59</v>
       </c>
       <c r="B244" t="s">
-        <v>262</v>
-      </c>
-      <c r="C244" t="s">
-        <v>54</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D244" s="7"/>
       <c r="E244" s="8"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B245" t="s">
-        <v>263</v>
-      </c>
-      <c r="C245" t="s">
-        <v>54</v>
+      <c r="B245" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D245" s="7"/>
       <c r="E245" s="8"/>
@@ -7283,10 +7309,10 @@
         <v>59</v>
       </c>
       <c r="B246" t="s">
-        <v>264</v>
-      </c>
-      <c r="C246" t="s">
-        <v>54</v>
+        <v>254</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D246" s="7"/>
       <c r="E246" s="8"/>
@@ -7296,7 +7322,7 @@
         <v>59</v>
       </c>
       <c r="B247" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C247" t="s">
         <v>54</v>
@@ -7309,7 +7335,7 @@
         <v>59</v>
       </c>
       <c r="B248" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C248" t="s">
         <v>54</v>
@@ -7321,7 +7347,7 @@
         <v>59</v>
       </c>
       <c r="B249" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C249" t="s">
         <v>54</v>
@@ -7333,11 +7359,12 @@
         <v>59</v>
       </c>
       <c r="B250" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C250" t="s">
         <v>54</v>
       </c>
+      <c r="D250" s="7"/>
       <c r="E250" s="8"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -7345,11 +7372,12 @@
         <v>59</v>
       </c>
       <c r="B251" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C251" t="s">
         <v>54</v>
       </c>
+      <c r="D251" s="7"/>
       <c r="E251" s="8"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -7357,11 +7385,12 @@
         <v>59</v>
       </c>
       <c r="B252" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C252" t="s">
         <v>54</v>
       </c>
+      <c r="D252" s="7"/>
       <c r="E252" s="8"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -7369,12 +7398,11 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C253" t="s">
         <v>54</v>
       </c>
-      <c r="D253" s="7"/>
       <c r="E253" s="8"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -7382,12 +7410,11 @@
         <v>59</v>
       </c>
       <c r="B254" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C254" t="s">
         <v>54</v>
       </c>
-      <c r="D254" s="7"/>
       <c r="E254" s="8"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -7395,7 +7422,7 @@
         <v>59</v>
       </c>
       <c r="B255" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C255" t="s">
         <v>54</v>
@@ -7408,11 +7435,12 @@
         <v>59</v>
       </c>
       <c r="B256" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C256" t="s">
         <v>54</v>
       </c>
+      <c r="D256" s="7"/>
       <c r="E256" s="8"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -7420,11 +7448,12 @@
         <v>59</v>
       </c>
       <c r="B257" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C257" t="s">
         <v>54</v>
       </c>
+      <c r="D257" s="7"/>
       <c r="E257" s="8"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -7432,12 +7461,11 @@
         <v>59</v>
       </c>
       <c r="B258" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C258" t="s">
         <v>54</v>
       </c>
-      <c r="D258" s="7"/>
       <c r="E258" s="8"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -7445,12 +7473,11 @@
         <v>59</v>
       </c>
       <c r="B259" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C259" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="7"/>
       <c r="E259" s="8"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -7458,12 +7485,11 @@
         <v>59</v>
       </c>
       <c r="B260" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C260" t="s">
         <v>54</v>
       </c>
-      <c r="D260" s="7"/>
       <c r="E260" s="8"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -7471,10 +7497,10 @@
         <v>59</v>
       </c>
       <c r="B261" t="s">
-        <v>279</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>423</v>
+        <v>269</v>
+      </c>
+      <c r="C261" t="s">
+        <v>54</v>
       </c>
       <c r="E261" s="8"/>
     </row>
@@ -7483,10 +7509,10 @@
         <v>59</v>
       </c>
       <c r="B262" t="s">
-        <v>280</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>423</v>
+        <v>270</v>
+      </c>
+      <c r="C262" t="s">
+        <v>54</v>
       </c>
       <c r="E262" s="8"/>
     </row>
@@ -7495,10 +7521,10 @@
         <v>59</v>
       </c>
       <c r="B263" t="s">
-        <v>281</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>423</v>
+        <v>271</v>
+      </c>
+      <c r="C263" t="s">
+        <v>54</v>
       </c>
       <c r="D263" s="7"/>
       <c r="E263" s="8"/>
@@ -7508,10 +7534,10 @@
         <v>59</v>
       </c>
       <c r="B264" t="s">
-        <v>282</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>423</v>
+        <v>272</v>
+      </c>
+      <c r="C264" t="s">
+        <v>54</v>
       </c>
       <c r="D264" s="7"/>
       <c r="E264" s="8"/>
@@ -7521,10 +7547,10 @@
         <v>59</v>
       </c>
       <c r="B265" t="s">
-        <v>283</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>423</v>
+        <v>273</v>
+      </c>
+      <c r="C265" t="s">
+        <v>54</v>
       </c>
       <c r="D265" s="7"/>
       <c r="E265" s="8"/>
@@ -7534,10 +7560,10 @@
         <v>59</v>
       </c>
       <c r="B266" t="s">
-        <v>284</v>
-      </c>
-      <c r="C266" s="8" t="s">
-        <v>423</v>
+        <v>274</v>
+      </c>
+      <c r="C266" t="s">
+        <v>54</v>
       </c>
       <c r="E266" s="8"/>
     </row>
@@ -7546,10 +7572,10 @@
         <v>59</v>
       </c>
       <c r="B267" t="s">
-        <v>285</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>423</v>
+        <v>275</v>
+      </c>
+      <c r="C267" t="s">
+        <v>54</v>
       </c>
       <c r="E267" s="8"/>
     </row>
@@ -7558,10 +7584,10 @@
         <v>59</v>
       </c>
       <c r="B268" t="s">
-        <v>286</v>
-      </c>
-      <c r="C268" s="8" t="s">
-        <v>462</v>
+        <v>276</v>
+      </c>
+      <c r="C268" t="s">
+        <v>54</v>
       </c>
       <c r="D268" s="7"/>
       <c r="E268" s="8"/>
@@ -7571,10 +7597,10 @@
         <v>59</v>
       </c>
       <c r="B269" t="s">
-        <v>287</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>462</v>
+        <v>277</v>
+      </c>
+      <c r="C269" t="s">
+        <v>54</v>
       </c>
       <c r="D269" s="7"/>
       <c r="E269" s="8"/>
@@ -7584,10 +7610,10 @@
         <v>59</v>
       </c>
       <c r="B270" t="s">
-        <v>288</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>462</v>
+        <v>278</v>
+      </c>
+      <c r="C270" t="s">
+        <v>54</v>
       </c>
       <c r="D270" s="7"/>
       <c r="E270" s="8"/>
@@ -7597,12 +7623,11 @@
         <v>59</v>
       </c>
       <c r="B271" t="s">
-        <v>289</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D271" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="E271" s="8"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -7610,12 +7635,11 @@
         <v>59</v>
       </c>
       <c r="B272" t="s">
-        <v>290</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D272" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="E272" s="8"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -7623,10 +7647,10 @@
         <v>59</v>
       </c>
       <c r="B273" t="s">
-        <v>291</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>58</v>
+        <v>281</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>423</v>
       </c>
       <c r="D273" s="7"/>
       <c r="E273" s="8"/>
@@ -7636,11 +7660,12 @@
         <v>59</v>
       </c>
       <c r="B274" t="s">
-        <v>292</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D274" s="7"/>
       <c r="E274" s="8"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -7648,11 +7673,12 @@
         <v>59</v>
       </c>
       <c r="B275" t="s">
-        <v>293</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D275" s="7"/>
       <c r="E275" s="8"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -7660,12 +7686,11 @@
         <v>59</v>
       </c>
       <c r="B276" t="s">
-        <v>294</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D276" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="E276" s="8"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -7673,12 +7698,11 @@
         <v>59</v>
       </c>
       <c r="B277" t="s">
-        <v>295</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D277" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="E277" s="8"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -7686,10 +7710,10 @@
         <v>59</v>
       </c>
       <c r="B278" t="s">
-        <v>296</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>58</v>
+        <v>286</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="D278" s="7"/>
       <c r="E278" s="8"/>
@@ -7699,11 +7723,12 @@
         <v>59</v>
       </c>
       <c r="B279" t="s">
-        <v>297</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D279" s="7"/>
       <c r="E279" s="8"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -7711,11 +7736,12 @@
         <v>59</v>
       </c>
       <c r="B280" t="s">
-        <v>298</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D280" s="7"/>
       <c r="E280" s="8"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -7723,10 +7749,10 @@
         <v>59</v>
       </c>
       <c r="B281" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>58</v>
+        <v>463</v>
       </c>
       <c r="D281" s="7"/>
       <c r="E281" s="8"/>
@@ -7736,10 +7762,10 @@
         <v>59</v>
       </c>
       <c r="B282" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>58</v>
+        <v>463</v>
       </c>
       <c r="D282" s="7"/>
       <c r="E282" s="8"/>
@@ -7749,7 +7775,7 @@
         <v>59</v>
       </c>
       <c r="B283" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>58</v>
@@ -7762,7 +7788,7 @@
         <v>59</v>
       </c>
       <c r="B284" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>58</v>
@@ -7774,10 +7800,10 @@
         <v>59</v>
       </c>
       <c r="B285" t="s">
-        <v>303</v>
-      </c>
-      <c r="C285" t="s">
-        <v>54</v>
+        <v>293</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E285" s="8"/>
     </row>
@@ -7786,10 +7812,10 @@
         <v>59</v>
       </c>
       <c r="B286" t="s">
-        <v>304</v>
-      </c>
-      <c r="C286" t="s">
-        <v>54</v>
+        <v>294</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D286" s="7"/>
       <c r="E286" s="8"/>
@@ -7799,10 +7825,10 @@
         <v>59</v>
       </c>
       <c r="B287" t="s">
-        <v>305</v>
-      </c>
-      <c r="C287" t="s">
-        <v>54</v>
+        <v>295</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D287" s="7"/>
       <c r="E287" s="8"/>
@@ -7812,10 +7838,10 @@
         <v>59</v>
       </c>
       <c r="B288" t="s">
-        <v>306</v>
-      </c>
-      <c r="C288" t="s">
-        <v>54</v>
+        <v>296</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D288" s="7"/>
       <c r="E288" s="8"/>
@@ -7825,10 +7851,10 @@
         <v>59</v>
       </c>
       <c r="B289" t="s">
-        <v>307</v>
-      </c>
-      <c r="C289" t="s">
-        <v>54</v>
+        <v>297</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E289" s="8"/>
     </row>
@@ -7837,10 +7863,10 @@
         <v>59</v>
       </c>
       <c r="B290" t="s">
-        <v>308</v>
-      </c>
-      <c r="C290" t="s">
-        <v>54</v>
+        <v>298</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E290" s="8"/>
     </row>
@@ -7849,11 +7875,12 @@
         <v>59</v>
       </c>
       <c r="B291" t="s">
-        <v>309</v>
-      </c>
-      <c r="C291" t="s">
-        <v>54</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D291" s="7"/>
       <c r="E291" s="8"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -7861,11 +7888,12 @@
         <v>59</v>
       </c>
       <c r="B292" t="s">
-        <v>310</v>
-      </c>
-      <c r="C292" t="s">
-        <v>54</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D292" s="7"/>
       <c r="E292" s="8"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -7873,11 +7901,12 @@
         <v>59</v>
       </c>
       <c r="B293" t="s">
-        <v>311</v>
-      </c>
-      <c r="C293" t="s">
-        <v>54</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D293" s="7"/>
       <c r="E293" s="8"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -7885,12 +7914,11 @@
         <v>59</v>
       </c>
       <c r="B294" t="s">
-        <v>312</v>
-      </c>
-      <c r="C294" t="s">
-        <v>54</v>
-      </c>
-      <c r="D294" s="7"/>
+        <v>302</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E294" s="8"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -7898,12 +7926,11 @@
         <v>59</v>
       </c>
       <c r="B295" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C295" t="s">
         <v>54</v>
       </c>
-      <c r="D295" s="7"/>
       <c r="E295" s="8"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -7911,7 +7938,7 @@
         <v>59</v>
       </c>
       <c r="B296" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C296" t="s">
         <v>54</v>
@@ -7924,11 +7951,12 @@
         <v>59</v>
       </c>
       <c r="B297" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C297" t="s">
         <v>54</v>
       </c>
+      <c r="D297" s="7"/>
       <c r="E297" s="8"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -7936,11 +7964,12 @@
         <v>59</v>
       </c>
       <c r="B298" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C298" t="s">
         <v>54</v>
       </c>
+      <c r="D298" s="7"/>
       <c r="E298" s="8"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -7948,12 +7977,11 @@
         <v>59</v>
       </c>
       <c r="B299" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C299" t="s">
         <v>54</v>
       </c>
-      <c r="D299" s="7"/>
       <c r="E299" s="8"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -7961,12 +7989,11 @@
         <v>59</v>
       </c>
       <c r="B300" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C300" t="s">
         <v>54</v>
       </c>
-      <c r="D300" s="7"/>
       <c r="E300" s="8"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -7974,7 +8001,7 @@
         <v>59</v>
       </c>
       <c r="B301" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C301" t="s">
         <v>54</v>
@@ -7986,7 +8013,7 @@
         <v>59</v>
       </c>
       <c r="B302" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C302" t="s">
         <v>54</v>
@@ -7998,12 +8025,11 @@
         <v>59</v>
       </c>
       <c r="B303" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C303" t="s">
         <v>54</v>
       </c>
-      <c r="D303" s="7"/>
       <c r="E303" s="8"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -8011,7 +8037,7 @@
         <v>59</v>
       </c>
       <c r="B304" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C304" t="s">
         <v>54</v>
@@ -8024,7 +8050,7 @@
         <v>59</v>
       </c>
       <c r="B305" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C305" t="s">
         <v>54</v>
@@ -8037,11 +8063,12 @@
         <v>59</v>
       </c>
       <c r="B306" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C306" t="s">
         <v>54</v>
       </c>
+      <c r="D306" s="7"/>
       <c r="E306" s="8"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -8049,7 +8076,7 @@
         <v>59</v>
       </c>
       <c r="B307" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C307" t="s">
         <v>54</v>
@@ -8061,12 +8088,11 @@
         <v>59</v>
       </c>
       <c r="B308" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C308" t="s">
         <v>54</v>
       </c>
-      <c r="D308" s="7"/>
       <c r="E308" s="8"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -8074,7 +8100,7 @@
         <v>59</v>
       </c>
       <c r="B309" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C309" t="s">
         <v>54</v>
@@ -8087,7 +8113,7 @@
         <v>59</v>
       </c>
       <c r="B310" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C310" t="s">
         <v>54</v>
@@ -8100,12 +8126,11 @@
         <v>59</v>
       </c>
       <c r="B311" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C311" t="s">
         <v>54</v>
       </c>
-      <c r="D311" s="7"/>
       <c r="E311" s="8"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -8113,12 +8138,11 @@
         <v>59</v>
       </c>
       <c r="B312" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C312" t="s">
         <v>54</v>
       </c>
-      <c r="D312" s="7"/>
       <c r="E312" s="8"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -8126,7 +8150,7 @@
         <v>59</v>
       </c>
       <c r="B313" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C313" t="s">
         <v>54</v>
@@ -8139,11 +8163,12 @@
         <v>59</v>
       </c>
       <c r="B314" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C314" t="s">
         <v>54</v>
       </c>
+      <c r="D314" s="7"/>
       <c r="E314" s="8"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -8151,11 +8176,12 @@
         <v>59</v>
       </c>
       <c r="B315" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C315" t="s">
         <v>54</v>
       </c>
+      <c r="D315" s="7"/>
       <c r="E315" s="8"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -8163,12 +8189,11 @@
         <v>59</v>
       </c>
       <c r="B316" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C316" t="s">
         <v>54</v>
       </c>
-      <c r="D316" s="7"/>
       <c r="E316" s="8"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -8176,12 +8201,11 @@
         <v>59</v>
       </c>
       <c r="B317" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C317" t="s">
         <v>54</v>
       </c>
-      <c r="D317" s="7"/>
       <c r="E317" s="8"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -8189,7 +8213,7 @@
         <v>59</v>
       </c>
       <c r="B318" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C318" t="s">
         <v>54</v>
@@ -8202,11 +8226,12 @@
         <v>59</v>
       </c>
       <c r="B319" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C319" t="s">
         <v>54</v>
       </c>
+      <c r="D319" s="7"/>
       <c r="E319" s="8"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -8214,11 +8239,12 @@
         <v>59</v>
       </c>
       <c r="B320" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C320" t="s">
         <v>54</v>
       </c>
+      <c r="D320" s="7"/>
       <c r="E320" s="8"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -8226,10 +8252,10 @@
         <v>59</v>
       </c>
       <c r="B321" t="s">
-        <v>339</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>58</v>
+        <v>329</v>
+      </c>
+      <c r="C321" t="s">
+        <v>54</v>
       </c>
       <c r="D321" s="7"/>
       <c r="E321" s="8"/>
@@ -8239,10 +8265,10 @@
         <v>59</v>
       </c>
       <c r="B322" t="s">
-        <v>340</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>58</v>
+        <v>330</v>
+      </c>
+      <c r="C322" t="s">
+        <v>54</v>
       </c>
       <c r="D322" s="7"/>
       <c r="E322" s="8"/>
@@ -8252,10 +8278,10 @@
         <v>59</v>
       </c>
       <c r="B323" t="s">
-        <v>341</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>58</v>
+        <v>331</v>
+      </c>
+      <c r="C323" t="s">
+        <v>54</v>
       </c>
       <c r="D323" s="7"/>
       <c r="E323" s="8"/>
@@ -8265,10 +8291,10 @@
         <v>59</v>
       </c>
       <c r="B324" t="s">
-        <v>342</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>58</v>
+        <v>332</v>
+      </c>
+      <c r="C324" t="s">
+        <v>54</v>
       </c>
       <c r="E324" s="8"/>
     </row>
@@ -8277,10 +8303,10 @@
         <v>59</v>
       </c>
       <c r="B325" t="s">
-        <v>343</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>58</v>
+        <v>333</v>
+      </c>
+      <c r="C325" t="s">
+        <v>54</v>
       </c>
       <c r="E325" s="8"/>
     </row>
@@ -8289,10 +8315,10 @@
         <v>59</v>
       </c>
       <c r="B326" t="s">
-        <v>344</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>58</v>
+        <v>334</v>
+      </c>
+      <c r="C326" t="s">
+        <v>54</v>
       </c>
       <c r="D326" s="7"/>
       <c r="E326" s="8"/>
@@ -8302,10 +8328,10 @@
         <v>59</v>
       </c>
       <c r="B327" t="s">
-        <v>345</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>58</v>
+        <v>335</v>
+      </c>
+      <c r="C327" t="s">
+        <v>54</v>
       </c>
       <c r="D327" s="7"/>
       <c r="E327" s="8"/>
@@ -8315,10 +8341,10 @@
         <v>59</v>
       </c>
       <c r="B328" t="s">
-        <v>346</v>
-      </c>
-      <c r="C328" s="7" t="s">
-        <v>58</v>
+        <v>336</v>
+      </c>
+      <c r="C328" t="s">
+        <v>54</v>
       </c>
       <c r="D328" s="7"/>
       <c r="E328" s="8"/>
@@ -8328,12 +8354,11 @@
         <v>59</v>
       </c>
       <c r="B329" t="s">
-        <v>347</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D329" s="7"/>
+        <v>337</v>
+      </c>
+      <c r="C329" t="s">
+        <v>54</v>
+      </c>
       <c r="E329" s="8"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -8341,12 +8366,11 @@
         <v>59</v>
       </c>
       <c r="B330" t="s">
-        <v>348</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D330" s="7"/>
+        <v>338</v>
+      </c>
+      <c r="C330" t="s">
+        <v>54</v>
+      </c>
       <c r="E330" s="8"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -8354,7 +8378,7 @@
         <v>59</v>
       </c>
       <c r="B331" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>58</v>
@@ -8367,11 +8391,12 @@
         <v>59</v>
       </c>
       <c r="B332" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="D332" s="7"/>
       <c r="E332" s="8"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -8379,11 +8404,12 @@
         <v>59</v>
       </c>
       <c r="B333" t="s">
-        <v>351</v>
-      </c>
-      <c r="C333" t="s">
-        <v>54</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D333" s="7"/>
       <c r="E333" s="8"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -8391,12 +8417,11 @@
         <v>59</v>
       </c>
       <c r="B334" t="s">
-        <v>352</v>
-      </c>
-      <c r="C334" t="s">
-        <v>54</v>
-      </c>
-      <c r="D334" s="7"/>
+        <v>342</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E334" s="8"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -8404,12 +8429,11 @@
         <v>59</v>
       </c>
       <c r="B335" t="s">
-        <v>353</v>
-      </c>
-      <c r="C335" t="s">
-        <v>54</v>
-      </c>
-      <c r="D335" s="7"/>
+        <v>343</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E335" s="8"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -8417,10 +8441,10 @@
         <v>59</v>
       </c>
       <c r="B336" t="s">
-        <v>354</v>
-      </c>
-      <c r="C336" t="s">
-        <v>54</v>
+        <v>344</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D336" s="7"/>
       <c r="E336" s="8"/>
@@ -8430,11 +8454,12 @@
         <v>59</v>
       </c>
       <c r="B337" t="s">
-        <v>355</v>
-      </c>
-      <c r="C337" t="s">
-        <v>54</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D337" s="7"/>
       <c r="E337" s="8"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -8442,11 +8467,12 @@
         <v>59</v>
       </c>
       <c r="B338" t="s">
-        <v>356</v>
-      </c>
-      <c r="C338" t="s">
-        <v>54</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D338" s="7"/>
       <c r="E338" s="8"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -8454,10 +8480,10 @@
         <v>59</v>
       </c>
       <c r="B339" t="s">
-        <v>357</v>
-      </c>
-      <c r="C339" t="s">
-        <v>54</v>
+        <v>347</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D339" s="7"/>
       <c r="E339" s="8"/>
@@ -8467,10 +8493,10 @@
         <v>59</v>
       </c>
       <c r="B340" t="s">
-        <v>358</v>
-      </c>
-      <c r="C340" t="s">
-        <v>54</v>
+        <v>348</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D340" s="7"/>
       <c r="E340" s="8"/>
@@ -8480,10 +8506,10 @@
         <v>59</v>
       </c>
       <c r="B341" t="s">
-        <v>359</v>
-      </c>
-      <c r="C341" t="s">
-        <v>54</v>
+        <v>349</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D341" s="7"/>
       <c r="E341" s="8"/>
@@ -8493,10 +8519,10 @@
         <v>59</v>
       </c>
       <c r="B342" t="s">
-        <v>360</v>
-      </c>
-      <c r="C342" t="s">
-        <v>54</v>
+        <v>350</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E342" s="8"/>
     </row>
@@ -8505,7 +8531,7 @@
         <v>59</v>
       </c>
       <c r="B343" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C343" t="s">
         <v>54</v>
@@ -8517,7 +8543,7 @@
         <v>59</v>
       </c>
       <c r="B344" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C344" t="s">
         <v>54</v>
@@ -8530,7 +8556,7 @@
         <v>59</v>
       </c>
       <c r="B345" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C345" t="s">
         <v>54</v>
@@ -8543,7 +8569,7 @@
         <v>59</v>
       </c>
       <c r="B346" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C346" t="s">
         <v>54</v>
@@ -8556,7 +8582,7 @@
         <v>59</v>
       </c>
       <c r="B347" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C347" t="s">
         <v>54</v>
@@ -8568,7 +8594,7 @@
         <v>59</v>
       </c>
       <c r="B348" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C348" t="s">
         <v>54</v>
@@ -8580,11 +8606,12 @@
         <v>59</v>
       </c>
       <c r="B349" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C349" t="s">
         <v>54</v>
       </c>
+      <c r="D349" s="7"/>
       <c r="E349" s="8"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -8592,11 +8619,12 @@
         <v>59</v>
       </c>
       <c r="B350" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C350" t="s">
         <v>54</v>
       </c>
+      <c r="D350" s="7"/>
       <c r="E350" s="8"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -8604,11 +8632,12 @@
         <v>59</v>
       </c>
       <c r="B351" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C351" t="s">
         <v>54</v>
       </c>
+      <c r="D351" s="7"/>
       <c r="E351" s="8"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -8616,12 +8645,11 @@
         <v>59</v>
       </c>
       <c r="B352" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C352" t="s">
         <v>54</v>
       </c>
-      <c r="D352" s="7"/>
       <c r="E352" s="8"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -8629,12 +8657,11 @@
         <v>59</v>
       </c>
       <c r="B353" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C353" t="s">
         <v>54</v>
       </c>
-      <c r="D353" s="7"/>
       <c r="E353" s="8"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -8642,7 +8669,7 @@
         <v>59</v>
       </c>
       <c r="B354" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C354" t="s">
         <v>54</v>
@@ -8655,11 +8682,12 @@
         <v>59</v>
       </c>
       <c r="B355" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C355" t="s">
         <v>54</v>
       </c>
+      <c r="D355" s="7"/>
       <c r="E355" s="8"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -8667,11 +8695,12 @@
         <v>59</v>
       </c>
       <c r="B356" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C356" t="s">
         <v>54</v>
       </c>
+      <c r="D356" s="7"/>
       <c r="E356" s="8"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -8679,12 +8708,11 @@
         <v>59</v>
       </c>
       <c r="B357" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C357" t="s">
         <v>54</v>
       </c>
-      <c r="D357" s="7"/>
       <c r="E357" s="8"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -8692,12 +8720,11 @@
         <v>59</v>
       </c>
       <c r="B358" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C358" t="s">
         <v>54</v>
       </c>
-      <c r="D358" s="7"/>
       <c r="E358" s="8"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -8705,12 +8732,11 @@
         <v>59</v>
       </c>
       <c r="B359" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C359" t="s">
         <v>54</v>
       </c>
-      <c r="D359" s="7"/>
       <c r="E359" s="8"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -8718,7 +8744,7 @@
         <v>59</v>
       </c>
       <c r="B360" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C360" t="s">
         <v>54</v>
@@ -8730,7 +8756,7 @@
         <v>59</v>
       </c>
       <c r="B361" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C361" t="s">
         <v>54</v>
@@ -8742,7 +8768,7 @@
         <v>59</v>
       </c>
       <c r="B362" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C362" t="s">
         <v>54</v>
@@ -8755,7 +8781,7 @@
         <v>59</v>
       </c>
       <c r="B363" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C363" t="s">
         <v>54</v>
@@ -8768,7 +8794,7 @@
         <v>59</v>
       </c>
       <c r="B364" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C364" t="s">
         <v>54</v>
@@ -8781,7 +8807,7 @@
         <v>59</v>
       </c>
       <c r="B365" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C365" t="s">
         <v>54</v>
@@ -8793,7 +8819,7 @@
         <v>59</v>
       </c>
       <c r="B366" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C366" t="s">
         <v>54</v>
@@ -8805,7 +8831,7 @@
         <v>59</v>
       </c>
       <c r="B367" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C367" t="s">
         <v>54</v>
@@ -8818,7 +8844,7 @@
         <v>59</v>
       </c>
       <c r="B368" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C368" t="s">
         <v>54</v>
@@ -8831,7 +8857,7 @@
         <v>59</v>
       </c>
       <c r="B369" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C369" t="s">
         <v>54</v>
@@ -8844,10 +8870,10 @@
         <v>59</v>
       </c>
       <c r="B370" t="s">
-        <v>387</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>58</v>
+        <v>377</v>
+      </c>
+      <c r="C370" t="s">
+        <v>54</v>
       </c>
       <c r="E370" s="8"/>
     </row>
@@ -8856,10 +8882,10 @@
         <v>59</v>
       </c>
       <c r="B371" t="s">
-        <v>388</v>
-      </c>
-      <c r="C371" s="7" t="s">
-        <v>58</v>
+        <v>378</v>
+      </c>
+      <c r="C371" t="s">
+        <v>54</v>
       </c>
       <c r="E371" s="8"/>
     </row>
@@ -8868,10 +8894,10 @@
         <v>59</v>
       </c>
       <c r="B372" t="s">
-        <v>389</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>58</v>
+        <v>379</v>
+      </c>
+      <c r="C372" t="s">
+        <v>54</v>
       </c>
       <c r="D372" s="7"/>
       <c r="E372" s="8"/>
@@ -8881,10 +8907,10 @@
         <v>59</v>
       </c>
       <c r="B373" t="s">
-        <v>390</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>58</v>
+        <v>380</v>
+      </c>
+      <c r="C373" t="s">
+        <v>54</v>
       </c>
       <c r="D373" s="7"/>
       <c r="E373" s="8"/>
@@ -8894,10 +8920,10 @@
         <v>59</v>
       </c>
       <c r="B374" t="s">
-        <v>391</v>
-      </c>
-      <c r="C374" s="7" t="s">
-        <v>58</v>
+        <v>381</v>
+      </c>
+      <c r="C374" t="s">
+        <v>54</v>
       </c>
       <c r="D374" s="7"/>
       <c r="E374" s="8"/>
@@ -8907,10 +8933,10 @@
         <v>59</v>
       </c>
       <c r="B375" t="s">
-        <v>392</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>58</v>
+        <v>382</v>
+      </c>
+      <c r="C375" t="s">
+        <v>54</v>
       </c>
       <c r="E375" s="8"/>
     </row>
@@ -8919,7 +8945,7 @@
         <v>59</v>
       </c>
       <c r="B376" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C376" t="s">
         <v>54</v>
@@ -8931,7 +8957,7 @@
         <v>59</v>
       </c>
       <c r="B377" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C377" t="s">
         <v>54</v>
@@ -8944,7 +8970,7 @@
         <v>59</v>
       </c>
       <c r="B378" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C378" t="s">
         <v>54</v>
@@ -8957,7 +8983,7 @@
         <v>59</v>
       </c>
       <c r="B379" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C379" t="s">
         <v>54</v>
@@ -8970,10 +8996,10 @@
         <v>59</v>
       </c>
       <c r="B380" t="s">
-        <v>397</v>
-      </c>
-      <c r="C380" t="s">
-        <v>54</v>
+        <v>387</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E380" s="8"/>
     </row>
@@ -8982,10 +9008,10 @@
         <v>59</v>
       </c>
       <c r="B381" t="s">
-        <v>398</v>
-      </c>
-      <c r="C381" t="s">
-        <v>54</v>
+        <v>388</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E381" s="8"/>
     </row>
@@ -8994,10 +9020,10 @@
         <v>59</v>
       </c>
       <c r="B382" t="s">
-        <v>399</v>
-      </c>
-      <c r="C382" t="s">
-        <v>54</v>
+        <v>389</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D382" s="7"/>
       <c r="E382" s="8"/>
@@ -9007,10 +9033,10 @@
         <v>59</v>
       </c>
       <c r="B383" t="s">
-        <v>400</v>
-      </c>
-      <c r="C383" t="s">
-        <v>54</v>
+        <v>390</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D383" s="7"/>
       <c r="E383" s="8"/>
@@ -9020,10 +9046,10 @@
         <v>59</v>
       </c>
       <c r="B384" t="s">
-        <v>401</v>
-      </c>
-      <c r="C384" t="s">
-        <v>54</v>
+        <v>391</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D384" s="7"/>
       <c r="E384" s="8"/>
@@ -9033,10 +9059,10 @@
         <v>59</v>
       </c>
       <c r="B385" t="s">
-        <v>402</v>
-      </c>
-      <c r="C385" t="s">
-        <v>54</v>
+        <v>392</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E385" s="8"/>
     </row>
@@ -9045,7 +9071,7 @@
         <v>59</v>
       </c>
       <c r="B386" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C386" t="s">
         <v>54</v>
@@ -9057,11 +9083,12 @@
         <v>59</v>
       </c>
       <c r="B387" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C387" t="s">
         <v>54</v>
       </c>
+      <c r="D387" s="7"/>
       <c r="E387" s="8"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -9069,11 +9096,12 @@
         <v>59</v>
       </c>
       <c r="B388" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C388" t="s">
         <v>54</v>
       </c>
+      <c r="D388" s="7"/>
       <c r="E388" s="8"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -9081,11 +9109,12 @@
         <v>59</v>
       </c>
       <c r="B389" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C389" t="s">
         <v>54</v>
       </c>
+      <c r="D389" s="7"/>
       <c r="E389" s="8"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -9093,12 +9122,11 @@
         <v>59</v>
       </c>
       <c r="B390" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C390" t="s">
         <v>54</v>
       </c>
-      <c r="D390" s="7"/>
       <c r="E390" s="8"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -9106,12 +9134,11 @@
         <v>59</v>
       </c>
       <c r="B391" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C391" t="s">
         <v>54</v>
       </c>
-      <c r="D391" s="7"/>
       <c r="E391" s="8"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -9119,7 +9146,7 @@
         <v>59</v>
       </c>
       <c r="B392" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C392" t="s">
         <v>54</v>
@@ -9132,11 +9159,12 @@
         <v>59</v>
       </c>
       <c r="B393" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C393" t="s">
         <v>54</v>
       </c>
+      <c r="D393" s="7"/>
       <c r="E393" s="8"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -9144,11 +9172,12 @@
         <v>59</v>
       </c>
       <c r="B394" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C394" t="s">
         <v>54</v>
       </c>
+      <c r="D394" s="7"/>
       <c r="E394" s="8"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -9156,12 +9185,11 @@
         <v>59</v>
       </c>
       <c r="B395" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C395" t="s">
         <v>54</v>
       </c>
-      <c r="D395" s="7"/>
       <c r="E395" s="8"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -9169,12 +9197,11 @@
         <v>59</v>
       </c>
       <c r="B396" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C396" t="s">
         <v>54</v>
       </c>
-      <c r="D396" s="7"/>
       <c r="E396" s="8"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -9182,12 +9209,11 @@
         <v>59</v>
       </c>
       <c r="B397" t="s">
-        <v>466</v>
-      </c>
-      <c r="C397" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D397" s="7"/>
+        <v>404</v>
+      </c>
+      <c r="C397" t="s">
+        <v>54</v>
+      </c>
       <c r="E397" s="8"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -9195,10 +9221,10 @@
         <v>59</v>
       </c>
       <c r="B398" t="s">
-        <v>466</v>
-      </c>
-      <c r="C398" s="8" t="s">
-        <v>420</v>
+        <v>405</v>
+      </c>
+      <c r="C398" t="s">
+        <v>54</v>
       </c>
       <c r="E398" s="8"/>
     </row>
@@ -9207,10 +9233,10 @@
         <v>59</v>
       </c>
       <c r="B399" t="s">
-        <v>466</v>
-      </c>
-      <c r="C399" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
+      </c>
+      <c r="C399" t="s">
+        <v>54</v>
       </c>
       <c r="E399" s="8"/>
     </row>
@@ -9219,10 +9245,10 @@
         <v>59</v>
       </c>
       <c r="B400" t="s">
-        <v>466</v>
-      </c>
-      <c r="C400" s="8" t="s">
-        <v>420</v>
+        <v>407</v>
+      </c>
+      <c r="C400" t="s">
+        <v>54</v>
       </c>
       <c r="D400" s="7"/>
       <c r="E400" s="8"/>
@@ -9232,10 +9258,10 @@
         <v>59</v>
       </c>
       <c r="B401" t="s">
-        <v>466</v>
-      </c>
-      <c r="C401" s="8" t="s">
-        <v>420</v>
+        <v>408</v>
+      </c>
+      <c r="C401" t="s">
+        <v>54</v>
       </c>
       <c r="D401" s="7"/>
       <c r="E401" s="8"/>
@@ -9245,85 +9271,149 @@
         <v>59</v>
       </c>
       <c r="B402" t="s">
-        <v>466</v>
-      </c>
-      <c r="C402" s="8" t="s">
-        <v>420</v>
+        <v>409</v>
+      </c>
+      <c r="C402" t="s">
+        <v>54</v>
       </c>
       <c r="D402" s="7"/>
       <c r="E402" s="8"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" s="2"/>
-      <c r="B403" s="8"/>
+      <c r="A403" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B403" t="s">
+        <v>410</v>
+      </c>
+      <c r="C403" t="s">
+        <v>54</v>
+      </c>
       <c r="E403" s="8"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" s="2"/>
-      <c r="B404" s="8"/>
-      <c r="D404" s="7"/>
+      <c r="A404" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B404" t="s">
+        <v>411</v>
+      </c>
+      <c r="C404" t="s">
+        <v>54</v>
+      </c>
       <c r="E404" s="8"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" s="2"/>
-      <c r="B405" s="8"/>
+      <c r="A405" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B405" t="s">
+        <v>412</v>
+      </c>
+      <c r="C405" t="s">
+        <v>54</v>
+      </c>
       <c r="D405" s="7"/>
       <c r="E405" s="8"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" s="2"/>
-      <c r="B406" s="8"/>
+      <c r="A406" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B406" t="s">
+        <v>413</v>
+      </c>
+      <c r="C406" t="s">
+        <v>54</v>
+      </c>
       <c r="D406" s="7"/>
       <c r="E406" s="8"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407" s="2"/>
-      <c r="B407" s="8"/>
+      <c r="A407" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B407" t="s">
+        <v>466</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="D407" s="7"/>
       <c r="E407" s="8"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A408" s="2"/>
-      <c r="B408" s="8"/>
+      <c r="A408" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B408" t="s">
+        <v>466</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="E408" s="8"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A409" s="2"/>
-      <c r="B409" s="8"/>
-      <c r="C409" s="16"/>
+      <c r="A409" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B409" t="s">
+        <v>466</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="E409" s="8"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A410" s="2"/>
-      <c r="B410" s="8"/>
-      <c r="C410" s="16"/>
+      <c r="A410" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B410" t="s">
+        <v>466</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="D410" s="7"/>
       <c r="E410" s="8"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411" s="2"/>
-      <c r="B411" s="8"/>
-      <c r="C411" s="16"/>
+      <c r="A411" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B411" t="s">
+        <v>466</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="D411" s="7"/>
       <c r="E411" s="8"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A412" s="2"/>
-      <c r="B412" s="8"/>
-      <c r="C412" s="16"/>
+      <c r="A412" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B412" t="s">
+        <v>466</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>420</v>
+      </c>
       <c r="D412" s="7"/>
       <c r="E412" s="8"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="8"/>
-      <c r="C413" s="16"/>
       <c r="E413" s="8"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="8"/>
-      <c r="C414" s="16"/>
+      <c r="D414" s="7"/>
       <c r="E414" s="8"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -9335,31 +9425,30 @@
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="8"/>
-      <c r="C416" s="16"/>
       <c r="D416" s="7"/>
       <c r="E416" s="8"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="8"/>
-      <c r="C417" s="16"/>
       <c r="D417" s="7"/>
       <c r="E417" s="8"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="8"/>
-      <c r="C418" s="16"/>
       <c r="E418" s="8"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="8"/>
+      <c r="C419" s="16"/>
       <c r="E419" s="8"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="8"/>
+      <c r="C420" s="16"/>
       <c r="D420" s="7"/>
       <c r="E420" s="8"/>
     </row>
@@ -9381,69 +9470,82 @@
       <c r="A423" s="2"/>
       <c r="B423" s="8"/>
       <c r="C423" s="16"/>
-      <c r="D423" s="7"/>
       <c r="E423" s="8"/>
     </row>
-    <row r="424" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A424" s="9"/>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="2"/>
       <c r="B424" s="8"/>
-      <c r="D424" s="7"/>
+      <c r="C424" s="16"/>
       <c r="E424" s="8"/>
     </row>
-    <row r="425" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A425" s="9"/>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="2"/>
       <c r="B425" s="8"/>
       <c r="D425" s="7"/>
       <c r="E425" s="8"/>
     </row>
-    <row r="426" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A426" s="9"/>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="2"/>
       <c r="B426" s="8"/>
+      <c r="C426" s="16"/>
+      <c r="D426" s="7"/>
       <c r="E426" s="8"/>
     </row>
-    <row r="427" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A427" s="9"/>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="2"/>
       <c r="B427" s="8"/>
+      <c r="C427" s="16"/>
+      <c r="D427" s="7"/>
       <c r="E427" s="8"/>
     </row>
-    <row r="428" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A428" s="9"/>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="2"/>
       <c r="B428" s="8"/>
+      <c r="C428" s="16"/>
       <c r="E428" s="8"/>
     </row>
-    <row r="429" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A429" s="9"/>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="2"/>
       <c r="B429" s="8"/>
       <c r="E429" s="8"/>
     </row>
-    <row r="430" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A430" s="9"/>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="2"/>
       <c r="B430" s="8"/>
+      <c r="D430" s="7"/>
       <c r="E430" s="8"/>
     </row>
-    <row r="431" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A431" s="9"/>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="2"/>
       <c r="B431" s="8"/>
+      <c r="C431" s="16"/>
+      <c r="D431" s="7"/>
       <c r="E431" s="8"/>
     </row>
-    <row r="432" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A432" s="9"/>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="2"/>
       <c r="B432" s="8"/>
+      <c r="C432" s="16"/>
+      <c r="D432" s="7"/>
       <c r="E432" s="8"/>
     </row>
-    <row r="433" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A433" s="9"/>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" s="2"/>
       <c r="B433" s="8"/>
+      <c r="C433" s="16"/>
+      <c r="D433" s="7"/>
       <c r="E433" s="8"/>
     </row>
     <row r="434" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="9"/>
       <c r="B434" s="8"/>
+      <c r="D434" s="7"/>
       <c r="E434" s="8"/>
     </row>
     <row r="435" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="9"/>
       <c r="B435" s="8"/>
+      <c r="D435" s="7"/>
       <c r="E435" s="8"/>
     </row>
     <row r="436" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9569,19 +9671,16 @@
     <row r="460" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="9"/>
       <c r="B460" s="8"/>
-      <c r="D460" s="7"/>
       <c r="E460" s="8"/>
     </row>
     <row r="461" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="9"/>
       <c r="B461" s="8"/>
-      <c r="D461" s="7"/>
       <c r="E461" s="8"/>
     </row>
     <row r="462" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="9"/>
       <c r="B462" s="8"/>
-      <c r="D462" s="7"/>
       <c r="E462" s="8"/>
     </row>
     <row r="463" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9597,19 +9696,16 @@
     <row r="465" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="9"/>
       <c r="B465" s="8"/>
-      <c r="D465" s="7"/>
       <c r="E465" s="8"/>
     </row>
     <row r="466" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="9"/>
       <c r="B466" s="8"/>
-      <c r="D466" s="7"/>
       <c r="E466" s="8"/>
     </row>
     <row r="467" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="9"/>
       <c r="B467" s="8"/>
-      <c r="D467" s="7"/>
       <c r="E467" s="8"/>
     </row>
     <row r="468" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10060,18 +10156,18 @@
       <c r="D547" s="7"/>
       <c r="E547" s="8"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A548" s="2"/>
+    <row r="548" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A548" s="9"/>
       <c r="B548" s="8"/>
       <c r="E548" s="8"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A549" s="2"/>
+    <row r="549" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A549" s="9"/>
       <c r="B549" s="8"/>
       <c r="E549" s="8"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A550" s="2"/>
+    <row r="550" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A550" s="9"/>
       <c r="B550" s="8"/>
       <c r="D550" s="7"/>
       <c r="E550" s="8"/>
@@ -10116,18 +10212,18 @@
       <c r="D557" s="7"/>
       <c r="E557" s="8"/>
     </row>
-    <row r="558" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A558" s="9"/>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A558" s="2"/>
       <c r="B558" s="8"/>
       <c r="E558" s="8"/>
     </row>
-    <row r="559" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A559" s="9"/>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A559" s="2"/>
       <c r="B559" s="8"/>
       <c r="E559" s="8"/>
     </row>
-    <row r="560" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A560" s="9"/>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A560" s="2"/>
       <c r="B560" s="8"/>
       <c r="D560" s="7"/>
       <c r="E560" s="8"/>
@@ -10330,103 +10426,103 @@
     </row>
     <row r="596" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="9"/>
+      <c r="B596" s="8"/>
       <c r="D596" s="7"/>
       <c r="E596" s="8"/>
     </row>
     <row r="597" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="9"/>
+      <c r="B597" s="8"/>
       <c r="D597" s="7"/>
       <c r="E597" s="8"/>
     </row>
     <row r="598" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="9"/>
+      <c r="B598" s="8"/>
       <c r="E598" s="8"/>
     </row>
     <row r="599" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="9"/>
+      <c r="B599" s="8"/>
       <c r="E599" s="8"/>
     </row>
     <row r="600" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="9"/>
+      <c r="B600" s="8"/>
       <c r="D600" s="7"/>
       <c r="E600" s="8"/>
     </row>
     <row r="601" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="9"/>
+      <c r="B601" s="8"/>
       <c r="D601" s="7"/>
       <c r="E601" s="8"/>
     </row>
     <row r="602" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="9"/>
+      <c r="B602" s="8"/>
       <c r="D602" s="7"/>
       <c r="E602" s="8"/>
     </row>
     <row r="603" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="9"/>
+      <c r="B603" s="8"/>
       <c r="E603" s="8"/>
     </row>
     <row r="604" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="9"/>
+      <c r="B604" s="8"/>
       <c r="E604" s="8"/>
     </row>
     <row r="605" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="9"/>
+      <c r="B605" s="8"/>
       <c r="D605" s="7"/>
       <c r="E605" s="8"/>
     </row>
     <row r="606" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="9"/>
-      <c r="B606" s="8"/>
       <c r="D606" s="7"/>
       <c r="E606" s="8"/>
     </row>
     <row r="607" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="9"/>
-      <c r="B607" s="8"/>
       <c r="D607" s="7"/>
       <c r="E607" s="8"/>
     </row>
     <row r="608" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="9"/>
-      <c r="B608" s="8"/>
       <c r="E608" s="8"/>
     </row>
     <row r="609" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="9"/>
-      <c r="B609" s="8"/>
       <c r="E609" s="8"/>
     </row>
     <row r="610" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="9"/>
-      <c r="B610" s="8"/>
       <c r="D610" s="7"/>
       <c r="E610" s="8"/>
     </row>
     <row r="611" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="9"/>
-      <c r="B611" s="8"/>
       <c r="D611" s="7"/>
       <c r="E611" s="8"/>
     </row>
     <row r="612" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="9"/>
-      <c r="B612" s="8"/>
       <c r="D612" s="7"/>
       <c r="E612" s="8"/>
     </row>
     <row r="613" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="9"/>
-      <c r="B613" s="8"/>
       <c r="E613" s="8"/>
     </row>
     <row r="614" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="9"/>
-      <c r="B614" s="8"/>
       <c r="E614" s="8"/>
     </row>
     <row r="615" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="9"/>
-      <c r="B615" s="8"/>
       <c r="D615" s="7"/>
       <c r="E615" s="8"/>
     </row>
@@ -10758,12 +10854,12 @@
     <row r="674" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="9"/>
       <c r="B674" s="8"/>
-      <c r="D674" s="7"/>
       <c r="E674" s="8"/>
     </row>
     <row r="675" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="9"/>
       <c r="B675" s="8"/>
+      <c r="D675" s="7"/>
       <c r="E675" s="8"/>
     </row>
     <row r="676" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10786,12 +10882,12 @@
     <row r="679" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A679" s="9"/>
       <c r="B679" s="8"/>
-      <c r="D679" s="7"/>
       <c r="E679" s="8"/>
     </row>
     <row r="680" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="9"/>
       <c r="B680" s="8"/>
+      <c r="D680" s="7"/>
       <c r="E680" s="8"/>
     </row>
     <row r="681" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10809,12 +10905,12 @@
     <row r="683" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="9"/>
       <c r="B683" s="8"/>
-      <c r="D683" s="7"/>
       <c r="E683" s="8"/>
     </row>
     <row r="684" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="9"/>
       <c r="B684" s="8"/>
+      <c r="D684" s="7"/>
       <c r="E684" s="8"/>
     </row>
     <row r="685" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10848,12 +10944,12 @@
     <row r="690" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="9"/>
       <c r="B690" s="8"/>
-      <c r="D690" s="7"/>
       <c r="E690" s="8"/>
     </row>
     <row r="691" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="9"/>
       <c r="B691" s="8"/>
+      <c r="D691" s="7"/>
       <c r="E691" s="8"/>
     </row>
     <row r="692" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10865,23 +10961,23 @@
     <row r="693" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A693" s="9"/>
       <c r="B693" s="8"/>
+      <c r="D693" s="7"/>
       <c r="E693" s="8"/>
     </row>
     <row r="694" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="9"/>
       <c r="B694" s="8"/>
-      <c r="D694" s="7"/>
       <c r="E694" s="8"/>
     </row>
     <row r="695" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="9"/>
       <c r="B695" s="8"/>
-      <c r="D695" s="7"/>
       <c r="E695" s="8"/>
     </row>
     <row r="696" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="9"/>
       <c r="B696" s="8"/>
+      <c r="D696" s="7"/>
       <c r="E696" s="8"/>
     </row>
     <row r="697" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10893,7 +10989,6 @@
     <row r="698" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="9"/>
       <c r="B698" s="8"/>
-      <c r="D698" s="7"/>
       <c r="E698" s="8"/>
     </row>
     <row r="699" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10905,6 +11000,7 @@
     <row r="700" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A700" s="9"/>
       <c r="B700" s="8"/>
+      <c r="D700" s="7"/>
       <c r="E700" s="8"/>
     </row>
     <row r="701" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10915,6 +11011,7 @@
     <row r="702" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="9"/>
       <c r="B702" s="8"/>
+      <c r="D702" s="7"/>
       <c r="E702" s="8"/>
     </row>
     <row r="703" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10925,11 +11022,13 @@
     <row r="704" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="9"/>
       <c r="B704" s="8"/>
+      <c r="D704" s="7"/>
       <c r="E704" s="8"/>
     </row>
     <row r="705" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="9"/>
       <c r="B705" s="8"/>
+      <c r="D705" s="7"/>
       <c r="E705" s="8"/>
     </row>
     <row r="706" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10940,16 +11039,19 @@
     <row r="707" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="9"/>
       <c r="B707" s="8"/>
+      <c r="D707" s="7"/>
       <c r="E707" s="8"/>
     </row>
     <row r="708" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="9"/>
       <c r="B708" s="8"/>
+      <c r="D708" s="7"/>
       <c r="E708" s="8"/>
     </row>
     <row r="709" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="9"/>
       <c r="B709" s="8"/>
+      <c r="D709" s="7"/>
       <c r="E709" s="8"/>
     </row>
     <row r="710" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11625,65 +11727,55 @@
     <row r="844" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A844" s="9"/>
       <c r="B844" s="8"/>
-      <c r="C844" s="7"/>
       <c r="E844" s="8"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A845" s="7"/>
+    <row r="845" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A845" s="9"/>
       <c r="B845" s="8"/>
-      <c r="C845" s="7"/>
       <c r="E845" s="8"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A846" s="7"/>
+    <row r="846" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A846" s="9"/>
       <c r="B846" s="8"/>
-      <c r="C846" s="7"/>
       <c r="E846" s="8"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A847" s="7"/>
+    <row r="847" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A847" s="9"/>
       <c r="B847" s="8"/>
-      <c r="C847" s="7"/>
       <c r="E847" s="8"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A848" s="7"/>
+    <row r="848" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A848" s="9"/>
       <c r="B848" s="8"/>
-      <c r="C848" s="7"/>
       <c r="E848" s="8"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A849" s="7"/>
+    <row r="849" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A849" s="9"/>
       <c r="B849" s="8"/>
-      <c r="C849" s="7"/>
       <c r="E849" s="8"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A850" s="7"/>
+    <row r="850" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A850" s="9"/>
       <c r="B850" s="8"/>
-      <c r="C850" s="7"/>
       <c r="E850" s="8"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A851" s="7"/>
+    <row r="851" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A851" s="9"/>
       <c r="B851" s="8"/>
-      <c r="C851" s="7"/>
       <c r="E851" s="8"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A852" s="7"/>
+    <row r="852" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A852" s="9"/>
       <c r="B852" s="8"/>
-      <c r="C852" s="7"/>
       <c r="E852" s="8"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A853" s="7"/>
+    <row r="853" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A853" s="9"/>
       <c r="B853" s="8"/>
-      <c r="C853" s="7"/>
       <c r="E853" s="8"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A854" s="7"/>
+    <row r="854" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A854" s="9"/>
       <c r="B854" s="8"/>
       <c r="C854" s="7"/>
       <c r="E854" s="8"/>
@@ -12141,51 +12233,61 @@
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930" s="7"/>
       <c r="B930" s="8"/>
+      <c r="C930" s="7"/>
       <c r="E930" s="8"/>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931" s="7"/>
       <c r="B931" s="8"/>
+      <c r="C931" s="7"/>
       <c r="E931" s="8"/>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932" s="7"/>
       <c r="B932" s="8"/>
+      <c r="C932" s="7"/>
       <c r="E932" s="8"/>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A933" s="7"/>
       <c r="B933" s="8"/>
+      <c r="C933" s="7"/>
       <c r="E933" s="8"/>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934" s="7"/>
       <c r="B934" s="8"/>
+      <c r="C934" s="7"/>
       <c r="E934" s="8"/>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A935" s="7"/>
       <c r="B935" s="8"/>
+      <c r="C935" s="7"/>
       <c r="E935" s="8"/>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A936" s="7"/>
       <c r="B936" s="8"/>
+      <c r="C936" s="7"/>
       <c r="E936" s="8"/>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A937" s="7"/>
       <c r="B937" s="8"/>
+      <c r="C937" s="7"/>
       <c r="E937" s="8"/>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A938" s="7"/>
       <c r="B938" s="8"/>
+      <c r="C938" s="7"/>
       <c r="E938" s="8"/>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A939" s="7"/>
       <c r="B939" s="8"/>
+      <c r="C939" s="7"/>
       <c r="E939" s="8"/>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
@@ -12276,25 +12378,21 @@
     <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957" s="7"/>
       <c r="B957" s="8"/>
-      <c r="C957" s="7"/>
       <c r="E957" s="8"/>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958" s="7"/>
       <c r="B958" s="8"/>
-      <c r="C958" s="7"/>
       <c r="E958" s="8"/>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959" s="7"/>
       <c r="B959" s="8"/>
-      <c r="C959" s="7"/>
       <c r="E959" s="8"/>
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960" s="7"/>
       <c r="B960" s="8"/>
-      <c r="C960" s="7"/>
       <c r="E960" s="8"/>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.2">
@@ -12310,45 +12408,45 @@
     <row r="963" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A963" s="7"/>
       <c r="B963" s="8"/>
-      <c r="C963" s="7"/>
       <c r="E963" s="8"/>
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A964" s="7"/>
       <c r="B964" s="8"/>
-      <c r="C964" s="7"/>
       <c r="E964" s="8"/>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A965" s="7"/>
       <c r="B965" s="8"/>
-      <c r="C965" s="7"/>
       <c r="E965" s="8"/>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A966" s="7"/>
       <c r="B966" s="8"/>
-      <c r="C966" s="7"/>
       <c r="E966" s="8"/>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A967" s="7"/>
       <c r="B967" s="8"/>
+      <c r="C967" s="7"/>
       <c r="E967" s="8"/>
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A968" s="7"/>
       <c r="B968" s="8"/>
+      <c r="C968" s="7"/>
       <c r="E968" s="8"/>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A969" s="7"/>
       <c r="B969" s="8"/>
+      <c r="C969" s="7"/>
       <c r="E969" s="8"/>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A970" s="7"/>
       <c r="B970" s="8"/>
+      <c r="C970" s="7"/>
       <c r="E970" s="8"/>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.2">
@@ -12364,6 +12462,7 @@
     <row r="973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A973" s="7"/>
       <c r="B973" s="8"/>
+      <c r="C973" s="7"/>
       <c r="E973" s="8"/>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.2">
@@ -12387,7 +12486,6 @@
     <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977" s="7"/>
       <c r="B977" s="8"/>
-      <c r="C977" s="7"/>
       <c r="E977" s="8"/>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.2">
@@ -12398,25 +12496,21 @@
     <row r="979" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A979" s="7"/>
       <c r="B979" s="8"/>
-      <c r="C979" s="7"/>
       <c r="E979" s="8"/>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A980" s="7"/>
       <c r="B980" s="8"/>
-      <c r="C980" s="7"/>
       <c r="E980" s="8"/>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981" s="7"/>
       <c r="B981" s="8"/>
-      <c r="C981" s="7"/>
       <c r="E981" s="8"/>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A982" s="7"/>
       <c r="B982" s="8"/>
-      <c r="C982" s="7"/>
       <c r="E982" s="8"/>
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.2">
@@ -12427,16 +12521,19 @@
     <row r="984" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A984" s="7"/>
       <c r="B984" s="8"/>
+      <c r="C984" s="7"/>
       <c r="E984" s="8"/>
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A985" s="7"/>
       <c r="B985" s="8"/>
+      <c r="C985" s="7"/>
       <c r="E985" s="8"/>
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A986" s="7"/>
       <c r="B986" s="8"/>
+      <c r="C986" s="7"/>
       <c r="E986" s="8"/>
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.2">
@@ -12453,11 +12550,13 @@
     <row r="989" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A989" s="7"/>
       <c r="B989" s="8"/>
+      <c r="C989" s="7"/>
       <c r="E989" s="8"/>
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A990" s="7"/>
       <c r="B990" s="8"/>
+      <c r="C990" s="7"/>
       <c r="E990" s="8"/>
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.2">
@@ -12469,6 +12568,7 @@
     <row r="992" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A992" s="7"/>
       <c r="B992" s="8"/>
+      <c r="C992" s="7"/>
       <c r="E992" s="8"/>
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.2">
@@ -12489,7 +12589,6 @@
     <row r="996" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A996" s="7"/>
       <c r="B996" s="8"/>
-      <c r="C996" s="7"/>
       <c r="E996" s="8"/>
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.2">
@@ -12516,6 +12615,7 @@
     <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1001" s="7"/>
       <c r="B1001" s="8"/>
+      <c r="C1001" s="7"/>
       <c r="E1001" s="8"/>
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
@@ -12535,78 +12635,89 @@
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1005" s="7"/>
+      <c r="B1005" s="8"/>
       <c r="E1005" s="8"/>
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1006" s="7"/>
+      <c r="B1006" s="8"/>
+      <c r="C1006" s="7"/>
       <c r="E1006" s="8"/>
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1007" s="7"/>
+      <c r="B1007" s="8"/>
+      <c r="C1007" s="7"/>
       <c r="E1007" s="8"/>
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1008" s="7"/>
+      <c r="B1008" s="8"/>
       <c r="E1008" s="8"/>
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1009" s="7"/>
+      <c r="B1009" s="8"/>
       <c r="E1009" s="8"/>
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1010" s="7"/>
+      <c r="B1010" s="8"/>
       <c r="E1010" s="8"/>
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1011" s="7"/>
+      <c r="B1011" s="8"/>
       <c r="E1011" s="8"/>
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1012" s="7"/>
+      <c r="B1012" s="8"/>
       <c r="E1012" s="8"/>
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1013" s="7"/>
+      <c r="A1013" s="7"/>
+      <c r="B1013" s="8"/>
       <c r="E1013" s="8"/>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1014" s="7"/>
+      <c r="B1014" s="8"/>
       <c r="E1014" s="8"/>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1015" s="7"/>
       <c r="E1015" s="8"/>
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1016" s="7"/>
       <c r="E1016" s="8"/>
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1017" s="7"/>
       <c r="E1017" s="8"/>
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1018" s="7"/>
       <c r="E1018" s="8"/>
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1019" s="7"/>
       <c r="E1019" s="8"/>
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1020" s="7"/>
-      <c r="C1020" s="7"/>
       <c r="E1020" s="8"/>
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1021" s="7"/>
       <c r="E1021" s="8"/>
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1022" s="7"/>
       <c r="E1022" s="8"/>
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1023" s="7"/>
+      <c r="C1023" s="7"/>
       <c r="E1023" s="8"/>
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1024" s="7"/>
       <c r="E1024" s="8"/>
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1025" s="7"/>
       <c r="E1025" s="8"/>
     </row>
     <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
@@ -12619,121 +12730,122 @@
     </row>
     <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1028" s="7"/>
-      <c r="C1028" s="8"/>
       <c r="E1028" s="8"/>
     </row>
     <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1029" s="7"/>
-      <c r="C1029" s="8"/>
       <c r="E1029" s="8"/>
     </row>
     <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1030" s="7"/>
+      <c r="C1030" s="7"/>
       <c r="E1030" s="8"/>
     </row>
     <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1031" s="7"/>
-      <c r="C1031" s="8"/>
       <c r="E1031" s="8"/>
     </row>
     <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1032" s="7"/>
-      <c r="C1032" s="7"/>
       <c r="E1032" s="8"/>
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1033" s="7"/>
+      <c r="A1033" s="7"/>
       <c r="E1033" s="8"/>
     </row>
     <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1034" s="7"/>
+      <c r="A1034" s="7"/>
       <c r="E1034" s="8"/>
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1035" s="7"/>
+      <c r="A1035" s="7"/>
       <c r="E1035" s="8"/>
     </row>
     <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1036" s="7"/>
+      <c r="A1036" s="7"/>
       <c r="E1036" s="8"/>
     </row>
     <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1037" s="7"/>
+      <c r="A1037" s="7"/>
       <c r="E1037" s="8"/>
     </row>
     <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1038" s="7"/>
+      <c r="A1038" s="7"/>
+      <c r="C1038" s="8"/>
       <c r="E1038" s="8"/>
     </row>
     <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1039" s="7"/>
+      <c r="A1039" s="7"/>
+      <c r="C1039" s="8"/>
       <c r="E1039" s="8"/>
     </row>
     <row r="1040" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1040" s="7"/>
+      <c r="A1040" s="7"/>
       <c r="E1040" s="8"/>
     </row>
-    <row r="1041" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C1041" s="7"/>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1041" s="7"/>
+      <c r="C1041" s="8"/>
       <c r="E1041" s="8"/>
     </row>
-    <row r="1042" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1042" s="7"/>
       <c r="C1042" s="7"/>
       <c r="E1042" s="8"/>
     </row>
-    <row r="1043" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1043" s="7"/>
       <c r="E1043" s="8"/>
     </row>
-    <row r="1044" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1044" s="7"/>
       <c r="E1044" s="8"/>
     </row>
-    <row r="1045" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1045" s="7"/>
       <c r="E1045" s="8"/>
     </row>
-    <row r="1046" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1046" s="7"/>
       <c r="E1046" s="8"/>
     </row>
-    <row r="1047" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1047" s="7"/>
       <c r="E1047" s="8"/>
     </row>
-    <row r="1048" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1048" s="7"/>
       <c r="E1048" s="8"/>
     </row>
-    <row r="1049" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1049" s="7"/>
       <c r="E1049" s="8"/>
     </row>
-    <row r="1050" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1050" s="7"/>
       <c r="E1050" s="8"/>
     </row>
-    <row r="1051" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1051" s="7"/>
       <c r="E1051" s="8"/>
     </row>
-    <row r="1052" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1052" s="7"/>
       <c r="E1052" s="8"/>
     </row>
-    <row r="1053" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1053" s="7"/>
       <c r="E1053" s="8"/>
     </row>
-    <row r="1054" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1054" s="7"/>
       <c r="E1054" s="8"/>
     </row>
-    <row r="1055" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1055" s="7"/>
       <c r="E1055" s="8"/>
     </row>
-    <row r="1056" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1056" s="7"/>
       <c r="E1056" s="8"/>
     </row>
@@ -14168,6 +14280,46 @@
     <row r="1414" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C1414" s="7"/>
       <c r="E1414" s="8"/>
+    </row>
+    <row r="1415" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1415" s="7"/>
+      <c r="E1415" s="8"/>
+    </row>
+    <row r="1416" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1416" s="7"/>
+      <c r="E1416" s="8"/>
+    </row>
+    <row r="1417" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1417" s="7"/>
+      <c r="E1417" s="8"/>
+    </row>
+    <row r="1418" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1418" s="7"/>
+      <c r="E1418" s="8"/>
+    </row>
+    <row r="1419" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1419" s="7"/>
+      <c r="E1419" s="8"/>
+    </row>
+    <row r="1420" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1420" s="7"/>
+      <c r="E1420" s="8"/>
+    </row>
+    <row r="1421" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1421" s="7"/>
+      <c r="E1421" s="8"/>
+    </row>
+    <row r="1422" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1422" s="7"/>
+      <c r="E1422" s="8"/>
+    </row>
+    <row r="1423" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1423" s="7"/>
+      <c r="E1423" s="8"/>
+    </row>
+    <row r="1424" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1424" s="7"/>
+      <c r="E1424" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/UDMI-CREATION/DISTECH CONTROLS/llbms_hli.xlsx
+++ b/UDMI-CREATION/DISTECH CONTROLS/llbms_hli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DISTECH CONTROLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46796C08-7F5B-47DD-8541-5521F0309E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAB22D1-ABF1-44F4-8E83-51BFBCA68E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="484">
   <si>
     <t>dbo.section</t>
   </si>
@@ -1470,6 +1470,21 @@
   </si>
   <si>
     <t>cdwp_03_control_mode</t>
+  </si>
+  <si>
+    <t>dgtk_02_percentage_sensor</t>
+  </si>
+  <si>
+    <t>dgtk_03_percentage_sensor</t>
+  </si>
+  <si>
+    <t>dgtk_04_percentage_sensor</t>
+  </si>
+  <si>
+    <t>dgtk_05_percentage_sensor</t>
+  </si>
+  <si>
+    <t>dgtk_06_percentage_sensor</t>
   </si>
 </sst>
 </file>
@@ -4167,8 +4182,8 @@
   <dimension ref="A1:G1424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C407" sqref="C407:C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9337,7 +9352,7 @@
         <v>466</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="D407" s="7"/>
       <c r="E407" s="8"/>
@@ -9347,10 +9362,10 @@
         <v>59</v>
       </c>
       <c r="B408" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="E408" s="8"/>
     </row>
@@ -9359,10 +9374,10 @@
         <v>59</v>
       </c>
       <c r="B409" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="E409" s="8"/>
     </row>
@@ -9371,10 +9386,10 @@
         <v>59</v>
       </c>
       <c r="B410" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="D410" s="7"/>
       <c r="E410" s="8"/>
@@ -9384,10 +9399,10 @@
         <v>59</v>
       </c>
       <c r="B411" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="D411" s="7"/>
       <c r="E411" s="8"/>
@@ -9397,10 +9412,10 @@
         <v>59</v>
       </c>
       <c r="B412" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="D412" s="7"/>
       <c r="E412" s="8"/>

--- a/UDMI-CREATION/DISTECH CONTROLS/llbms_hli.xlsx
+++ b/UDMI-CREATION/DISTECH CONTROLS/llbms_hli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DISTECH CONTROLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAB22D1-ABF1-44F4-8E83-51BFBCA68E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF3A73E-121A-45B6-A755-238C0779C03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,36 +731,24 @@
     <t>ll_em_01_power_sensor</t>
   </si>
   <si>
-    <t>ll_em_01_powefactor_sensor</t>
-  </si>
-  <si>
     <t>ll_em_01_energy_accumulator</t>
   </si>
   <si>
     <t>ll_em_02_power_sensor</t>
   </si>
   <si>
-    <t>ll_em_02_powefactor_sensor</t>
-  </si>
-  <si>
     <t>ll_em_02_energy_accumulator</t>
   </si>
   <si>
     <t>ll_em_03_power_sensor</t>
   </si>
   <si>
-    <t>ll_em_03_powefactor_sensor</t>
-  </si>
-  <si>
     <t>ll_em_03_energy_accumulator</t>
   </si>
   <si>
     <t>ll_em_04_power_sensor</t>
   </si>
   <si>
-    <t>ll_em_04_powefactor_sensor</t>
-  </si>
-  <si>
     <t>ll_em_04_energy_accumulator</t>
   </si>
   <si>
@@ -1485,6 +1473,18 @@
   </si>
   <si>
     <t>dgtk_06_percentage_sensor</t>
+  </si>
+  <si>
+    <t>ll_em_01_powerfactor_sensor</t>
+  </si>
+  <si>
+    <t>ll_em_02_powerfactor_sensor</t>
+  </si>
+  <si>
+    <t>ll_em_03_powerfactor_sensor</t>
+  </si>
+  <si>
+    <t>ll_em_04_powerfactor_sensor</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +2242,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -2263,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
@@ -4182,8 +4182,8 @@
   <dimension ref="A1:G1424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C407" sqref="C407:C412"/>
+      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D410" sqref="D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4604,7 +4604,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
@@ -4617,7 +4617,7 @@
         <v>92</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
@@ -4631,7 +4631,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
@@ -4641,7 +4641,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>57</v>
@@ -4654,7 +4654,7 @@
         <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>54</v>
@@ -4670,7 +4670,7 @@
         <v>94</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E36" s="8"/>
     </row>
@@ -4682,7 +4682,7 @@
         <v>95</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E37" s="8"/>
     </row>
@@ -4694,7 +4694,7 @@
         <v>96</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
@@ -4707,7 +4707,7 @@
         <v>97</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
@@ -4720,7 +4720,7 @@
         <v>98</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
@@ -4854,7 +4854,7 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
@@ -4866,7 +4866,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -4878,7 +4878,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
@@ -4890,7 +4890,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
@@ -4902,7 +4902,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C55" t="s">
         <v>54</v>
@@ -4914,7 +4914,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
@@ -4926,7 +4926,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
@@ -4938,7 +4938,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C58" t="s">
         <v>54</v>
@@ -5104,7 +5104,7 @@
         <v>121</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E71" s="8"/>
     </row>
@@ -5265,7 +5265,7 @@
         <v>59</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>57</v>
@@ -5278,7 +5278,7 @@
         <v>59</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>57</v>
@@ -5293,7 +5293,7 @@
         <v>134</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="8"/>
@@ -5332,7 +5332,7 @@
         <v>137</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="8"/>
@@ -5345,7 +5345,7 @@
         <v>138</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E90" s="8"/>
     </row>
@@ -5357,7 +5357,7 @@
         <v>139</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E91" s="8"/>
     </row>
@@ -5395,7 +5395,7 @@
         <v>142</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="8"/>
@@ -5408,7 +5408,7 @@
         <v>143</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E95" s="8"/>
     </row>
@@ -5420,7 +5420,7 @@
         <v>144</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E96" s="8"/>
     </row>
@@ -5458,7 +5458,7 @@
         <v>147</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="8"/>
@@ -5471,7 +5471,7 @@
         <v>148</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E100" s="8"/>
     </row>
@@ -5483,7 +5483,7 @@
         <v>149</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E101" s="8"/>
     </row>
@@ -5521,7 +5521,7 @@
         <v>152</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="8"/>
@@ -5534,7 +5534,7 @@
         <v>153</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="8"/>
@@ -5547,7 +5547,7 @@
         <v>154</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="8"/>
@@ -5585,7 +5585,7 @@
         <v>157</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E109" s="8"/>
     </row>
@@ -5597,7 +5597,7 @@
         <v>158</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="8"/>
@@ -5610,7 +5610,7 @@
         <v>159</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="8"/>
@@ -5648,7 +5648,7 @@
         <v>162</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E114" s="8"/>
     </row>
@@ -5660,7 +5660,7 @@
         <v>163</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="8"/>
@@ -5673,7 +5673,7 @@
         <v>164</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="8"/>
@@ -5711,7 +5711,7 @@
         <v>167</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E119" s="8"/>
     </row>
@@ -5723,7 +5723,7 @@
         <v>168</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="8"/>
@@ -5736,7 +5736,7 @@
         <v>169</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="8"/>
@@ -5774,7 +5774,7 @@
         <v>172</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E124" s="8"/>
     </row>
@@ -5786,7 +5786,7 @@
         <v>173</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E125" s="8"/>
     </row>
@@ -5798,7 +5798,7 @@
         <v>174</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E126" s="8"/>
     </row>
@@ -5835,7 +5835,7 @@
         <v>177</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="8"/>
@@ -5848,7 +5848,7 @@
         <v>178</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="8"/>
@@ -5861,7 +5861,7 @@
         <v>179</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E131" s="8"/>
     </row>
@@ -5898,7 +5898,7 @@
         <v>182</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="8"/>
@@ -5911,7 +5911,7 @@
         <v>183</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="8"/>
@@ -5924,7 +5924,7 @@
         <v>184</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E136" s="8"/>
     </row>
@@ -5961,7 +5961,7 @@
         <v>187</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="8"/>
@@ -5974,7 +5974,7 @@
         <v>188</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="8"/>
@@ -5987,7 +5987,7 @@
         <v>189</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E141" s="8"/>
     </row>
@@ -6024,7 +6024,7 @@
         <v>192</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="8"/>
@@ -6037,7 +6037,7 @@
         <v>193</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="8"/>
@@ -6050,7 +6050,7 @@
         <v>194</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="8"/>
@@ -6089,7 +6089,7 @@
         <v>197</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E149" s="8"/>
     </row>
@@ -6101,7 +6101,7 @@
         <v>198</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E150" s="8"/>
     </row>
@@ -6113,7 +6113,7 @@
         <v>199</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="8"/>
@@ -6152,7 +6152,7 @@
         <v>202</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E154" s="8"/>
     </row>
@@ -6164,7 +6164,7 @@
         <v>203</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E155" s="8"/>
     </row>
@@ -6176,7 +6176,7 @@
         <v>204</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="8"/>
@@ -6215,7 +6215,7 @@
         <v>207</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E159" s="8"/>
     </row>
@@ -6227,7 +6227,7 @@
         <v>208</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E160" s="8"/>
     </row>
@@ -6239,7 +6239,7 @@
         <v>209</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="8"/>
@@ -6278,7 +6278,7 @@
         <v>212</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E164" s="8"/>
     </row>
@@ -6290,7 +6290,7 @@
         <v>213</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E165" s="8"/>
     </row>
@@ -6302,7 +6302,7 @@
         <v>214</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E166" s="8"/>
     </row>
@@ -6338,7 +6338,7 @@
         <v>217</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="8"/>
@@ -6351,7 +6351,7 @@
         <v>218</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="8"/>
@@ -6364,7 +6364,7 @@
         <v>219</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="8"/>
@@ -6401,7 +6401,7 @@
         <v>222</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="8"/>
@@ -6414,7 +6414,7 @@
         <v>223</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="8"/>
@@ -6427,7 +6427,7 @@
         <v>224</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="8"/>
@@ -6464,7 +6464,7 @@
         <v>227</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="8"/>
@@ -6477,7 +6477,7 @@
         <v>228</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="8"/>
@@ -6490,7 +6490,7 @@
         <v>229</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="8"/>
@@ -6503,7 +6503,7 @@
         <v>230</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E182" s="8"/>
     </row>
@@ -6512,10 +6512,10 @@
         <v>59</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E183" s="8"/>
     </row>
@@ -6524,10 +6524,10 @@
         <v>59</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="8"/>
@@ -6540,7 +6540,7 @@
         <v>231</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="8"/>
@@ -6550,7 +6550,7 @@
         <v>59</v>
       </c>
       <c r="B186" t="s">
-        <v>232</v>
+        <v>480</v>
       </c>
       <c r="C186" t="s">
         <v>54</v>
@@ -6563,10 +6563,10 @@
         <v>59</v>
       </c>
       <c r="B187" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="8"/>
@@ -6576,10 +6576,10 @@
         <v>59</v>
       </c>
       <c r="B188" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="8"/>
@@ -6589,7 +6589,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>235</v>
+        <v>481</v>
       </c>
       <c r="C189" t="s">
         <v>54</v>
@@ -6602,10 +6602,10 @@
         <v>59</v>
       </c>
       <c r="B190" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E190" s="8"/>
     </row>
@@ -6614,10 +6614,10 @@
         <v>59</v>
       </c>
       <c r="B191" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E191" s="8"/>
     </row>
@@ -6626,7 +6626,7 @@
         <v>59</v>
       </c>
       <c r="B192" t="s">
-        <v>238</v>
+        <v>482</v>
       </c>
       <c r="C192" t="s">
         <v>54</v>
@@ -6639,10 +6639,10 @@
         <v>59</v>
       </c>
       <c r="B193" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="8"/>
@@ -6652,10 +6652,10 @@
         <v>59</v>
       </c>
       <c r="B194" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D194" s="7"/>
       <c r="E194" s="8"/>
@@ -6665,7 +6665,7 @@
         <v>59</v>
       </c>
       <c r="B195" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
       <c r="C195" t="s">
         <v>54</v>
@@ -6677,10 +6677,10 @@
         <v>59</v>
       </c>
       <c r="B196" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E196" s="8"/>
     </row>
@@ -6689,7 +6689,7 @@
         <v>59</v>
       </c>
       <c r="B197" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C197" t="s">
         <v>54</v>
@@ -6702,10 +6702,10 @@
         <v>59</v>
       </c>
       <c r="B198" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="8"/>
@@ -6715,7 +6715,7 @@
         <v>59</v>
       </c>
       <c r="B199" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C199" s="16" t="s">
         <v>56</v>
@@ -6728,10 +6728,10 @@
         <v>59</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E200" s="8"/>
     </row>
@@ -6740,10 +6740,10 @@
         <v>59</v>
       </c>
       <c r="B201" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E201" s="8"/>
     </row>
@@ -6752,7 +6752,7 @@
         <v>59</v>
       </c>
       <c r="B202" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C202" t="s">
         <v>54</v>
@@ -6765,7 +6765,7 @@
         <v>59</v>
       </c>
       <c r="B203" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C203" s="16" t="s">
         <v>56</v>
@@ -6778,10 +6778,10 @@
         <v>59</v>
       </c>
       <c r="B204" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="8"/>
@@ -6791,7 +6791,7 @@
         <v>59</v>
       </c>
       <c r="B205" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C205" t="s">
         <v>54</v>
@@ -6804,10 +6804,10 @@
         <v>59</v>
       </c>
       <c r="B206" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D206" s="7"/>
       <c r="E206" s="8"/>
@@ -6817,7 +6817,7 @@
         <v>59</v>
       </c>
       <c r="B207" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C207" s="16" t="s">
         <v>56</v>
@@ -6830,10 +6830,10 @@
         <v>59</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D208" s="7"/>
       <c r="E208" s="8"/>
@@ -6843,10 +6843,10 @@
         <v>59</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="8"/>
@@ -6856,7 +6856,7 @@
         <v>59</v>
       </c>
       <c r="B210" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C210" t="s">
         <v>54</v>
@@ -6869,7 +6869,7 @@
         <v>59</v>
       </c>
       <c r="B211" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C211" s="16" t="s">
         <v>56</v>
@@ -6882,10 +6882,10 @@
         <v>59</v>
       </c>
       <c r="B212" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D212" s="7"/>
       <c r="E212" s="8"/>
@@ -6895,7 +6895,7 @@
         <v>59</v>
       </c>
       <c r="B213" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C213" t="s">
         <v>54</v>
@@ -6908,10 +6908,10 @@
         <v>59</v>
       </c>
       <c r="B214" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D214" s="7"/>
       <c r="E214" s="8"/>
@@ -6921,7 +6921,7 @@
         <v>59</v>
       </c>
       <c r="B215" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C215" s="16" t="s">
         <v>56</v>
@@ -6934,10 +6934,10 @@
         <v>59</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D216" s="7"/>
       <c r="E216" s="8"/>
@@ -6947,10 +6947,10 @@
         <v>59</v>
       </c>
       <c r="B217" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D217" s="7"/>
       <c r="E217" s="8"/>
@@ -6960,7 +6960,7 @@
         <v>59</v>
       </c>
       <c r="B218" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C218" t="s">
         <v>54</v>
@@ -6973,7 +6973,7 @@
         <v>59</v>
       </c>
       <c r="B219" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C219" s="16" t="s">
         <v>56</v>
@@ -6986,10 +6986,10 @@
         <v>59</v>
       </c>
       <c r="B220" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="8"/>
@@ -6999,7 +6999,7 @@
         <v>59</v>
       </c>
       <c r="B221" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C221" t="s">
         <v>54</v>
@@ -7012,10 +7012,10 @@
         <v>59</v>
       </c>
       <c r="B222" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D222" s="7"/>
       <c r="E222" s="8"/>
@@ -7025,7 +7025,7 @@
         <v>59</v>
       </c>
       <c r="B223" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C223" s="16" t="s">
         <v>56</v>
@@ -7038,10 +7038,10 @@
         <v>59</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D224" s="7"/>
       <c r="E224" s="8"/>
@@ -7051,10 +7051,10 @@
         <v>59</v>
       </c>
       <c r="B225" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D225" s="7"/>
       <c r="E225" s="8"/>
@@ -7064,7 +7064,7 @@
         <v>59</v>
       </c>
       <c r="B226" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C226" t="s">
         <v>54</v>
@@ -7077,7 +7077,7 @@
         <v>59</v>
       </c>
       <c r="B227" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C227" s="16" t="s">
         <v>56</v>
@@ -7090,10 +7090,10 @@
         <v>59</v>
       </c>
       <c r="B228" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D228" s="7"/>
       <c r="E228" s="8"/>
@@ -7103,7 +7103,7 @@
         <v>59</v>
       </c>
       <c r="B229" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C229" t="s">
         <v>54</v>
@@ -7116,10 +7116,10 @@
         <v>59</v>
       </c>
       <c r="B230" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D230" s="7"/>
       <c r="E230" s="8"/>
@@ -7129,7 +7129,7 @@
         <v>59</v>
       </c>
       <c r="B231" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C231" s="16" t="s">
         <v>56</v>
@@ -7142,10 +7142,10 @@
         <v>59</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D232" s="7"/>
       <c r="E232" s="8"/>
@@ -7155,10 +7155,10 @@
         <v>59</v>
       </c>
       <c r="B233" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D233" s="7"/>
       <c r="E233" s="8"/>
@@ -7168,7 +7168,7 @@
         <v>59</v>
       </c>
       <c r="B234" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C234" t="s">
         <v>54</v>
@@ -7181,7 +7181,7 @@
         <v>59</v>
       </c>
       <c r="B235" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C235" s="16" t="s">
         <v>56</v>
@@ -7194,10 +7194,10 @@
         <v>59</v>
       </c>
       <c r="B236" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D236" s="7"/>
       <c r="E236" s="8"/>
@@ -7207,7 +7207,7 @@
         <v>59</v>
       </c>
       <c r="B237" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C237" t="s">
         <v>54</v>
@@ -7220,10 +7220,10 @@
         <v>59</v>
       </c>
       <c r="B238" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D238" s="7"/>
       <c r="E238" s="8"/>
@@ -7233,7 +7233,7 @@
         <v>59</v>
       </c>
       <c r="B239" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C239" s="16" t="s">
         <v>56</v>
@@ -7246,10 +7246,10 @@
         <v>59</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D240" s="7"/>
       <c r="E240" s="8"/>
@@ -7259,10 +7259,10 @@
         <v>59</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D241" s="7"/>
       <c r="E241" s="8"/>
@@ -7272,7 +7272,7 @@
         <v>59</v>
       </c>
       <c r="B242" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C242" t="s">
         <v>54</v>
@@ -7285,7 +7285,7 @@
         <v>59</v>
       </c>
       <c r="B243" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C243" s="16" t="s">
         <v>56</v>
@@ -7298,10 +7298,10 @@
         <v>59</v>
       </c>
       <c r="B244" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D244" s="7"/>
       <c r="E244" s="8"/>
@@ -7311,7 +7311,7 @@
         <v>59</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C245" s="16" t="s">
         <v>55</v>
@@ -7324,7 +7324,7 @@
         <v>59</v>
       </c>
       <c r="B246" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C246" s="16" t="s">
         <v>55</v>
@@ -7337,7 +7337,7 @@
         <v>59</v>
       </c>
       <c r="B247" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C247" t="s">
         <v>54</v>
@@ -7350,7 +7350,7 @@
         <v>59</v>
       </c>
       <c r="B248" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C248" t="s">
         <v>54</v>
@@ -7362,7 +7362,7 @@
         <v>59</v>
       </c>
       <c r="B249" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C249" t="s">
         <v>54</v>
@@ -7374,7 +7374,7 @@
         <v>59</v>
       </c>
       <c r="B250" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C250" t="s">
         <v>54</v>
@@ -7387,7 +7387,7 @@
         <v>59</v>
       </c>
       <c r="B251" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C251" t="s">
         <v>54</v>
@@ -7400,7 +7400,7 @@
         <v>59</v>
       </c>
       <c r="B252" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C252" t="s">
         <v>54</v>
@@ -7413,7 +7413,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C253" t="s">
         <v>54</v>
@@ -7425,7 +7425,7 @@
         <v>59</v>
       </c>
       <c r="B254" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C254" t="s">
         <v>54</v>
@@ -7437,7 +7437,7 @@
         <v>59</v>
       </c>
       <c r="B255" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C255" t="s">
         <v>54</v>
@@ -7450,7 +7450,7 @@
         <v>59</v>
       </c>
       <c r="B256" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C256" t="s">
         <v>54</v>
@@ -7463,7 +7463,7 @@
         <v>59</v>
       </c>
       <c r="B257" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C257" t="s">
         <v>54</v>
@@ -7476,7 +7476,7 @@
         <v>59</v>
       </c>
       <c r="B258" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C258" t="s">
         <v>54</v>
@@ -7488,7 +7488,7 @@
         <v>59</v>
       </c>
       <c r="B259" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C259" t="s">
         <v>54</v>
@@ -7500,7 +7500,7 @@
         <v>59</v>
       </c>
       <c r="B260" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C260" t="s">
         <v>54</v>
@@ -7512,7 +7512,7 @@
         <v>59</v>
       </c>
       <c r="B261" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C261" t="s">
         <v>54</v>
@@ -7524,7 +7524,7 @@
         <v>59</v>
       </c>
       <c r="B262" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C262" t="s">
         <v>54</v>
@@ -7536,7 +7536,7 @@
         <v>59</v>
       </c>
       <c r="B263" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C263" t="s">
         <v>54</v>
@@ -7549,7 +7549,7 @@
         <v>59</v>
       </c>
       <c r="B264" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C264" t="s">
         <v>54</v>
@@ -7562,7 +7562,7 @@
         <v>59</v>
       </c>
       <c r="B265" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C265" t="s">
         <v>54</v>
@@ -7575,7 +7575,7 @@
         <v>59</v>
       </c>
       <c r="B266" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C266" t="s">
         <v>54</v>
@@ -7587,7 +7587,7 @@
         <v>59</v>
       </c>
       <c r="B267" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C267" t="s">
         <v>54</v>
@@ -7599,7 +7599,7 @@
         <v>59</v>
       </c>
       <c r="B268" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C268" t="s">
         <v>54</v>
@@ -7612,7 +7612,7 @@
         <v>59</v>
       </c>
       <c r="B269" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C269" t="s">
         <v>54</v>
@@ -7625,7 +7625,7 @@
         <v>59</v>
       </c>
       <c r="B270" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C270" t="s">
         <v>54</v>
@@ -7638,10 +7638,10 @@
         <v>59</v>
       </c>
       <c r="B271" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E271" s="8"/>
     </row>
@@ -7650,10 +7650,10 @@
         <v>59</v>
       </c>
       <c r="B272" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E272" s="8"/>
     </row>
@@ -7662,10 +7662,10 @@
         <v>59</v>
       </c>
       <c r="B273" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D273" s="7"/>
       <c r="E273" s="8"/>
@@ -7675,10 +7675,10 @@
         <v>59</v>
       </c>
       <c r="B274" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D274" s="7"/>
       <c r="E274" s="8"/>
@@ -7688,10 +7688,10 @@
         <v>59</v>
       </c>
       <c r="B275" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D275" s="7"/>
       <c r="E275" s="8"/>
@@ -7701,10 +7701,10 @@
         <v>59</v>
       </c>
       <c r="B276" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E276" s="8"/>
     </row>
@@ -7713,10 +7713,10 @@
         <v>59</v>
       </c>
       <c r="B277" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E277" s="8"/>
     </row>
@@ -7725,10 +7725,10 @@
         <v>59</v>
       </c>
       <c r="B278" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D278" s="7"/>
       <c r="E278" s="8"/>
@@ -7738,10 +7738,10 @@
         <v>59</v>
       </c>
       <c r="B279" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D279" s="7"/>
       <c r="E279" s="8"/>
@@ -7751,10 +7751,10 @@
         <v>59</v>
       </c>
       <c r="B280" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D280" s="7"/>
       <c r="E280" s="8"/>
@@ -7764,10 +7764,10 @@
         <v>59</v>
       </c>
       <c r="B281" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D281" s="7"/>
       <c r="E281" s="8"/>
@@ -7777,10 +7777,10 @@
         <v>59</v>
       </c>
       <c r="B282" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D282" s="7"/>
       <c r="E282" s="8"/>
@@ -7790,7 +7790,7 @@
         <v>59</v>
       </c>
       <c r="B283" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>58</v>
@@ -7803,7 +7803,7 @@
         <v>59</v>
       </c>
       <c r="B284" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>58</v>
@@ -7815,7 +7815,7 @@
         <v>59</v>
       </c>
       <c r="B285" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>58</v>
@@ -7827,7 +7827,7 @@
         <v>59</v>
       </c>
       <c r="B286" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>58</v>
@@ -7840,7 +7840,7 @@
         <v>59</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>58</v>
@@ -7853,7 +7853,7 @@
         <v>59</v>
       </c>
       <c r="B288" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>58</v>
@@ -7866,7 +7866,7 @@
         <v>59</v>
       </c>
       <c r="B289" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>58</v>
@@ -7878,7 +7878,7 @@
         <v>59</v>
       </c>
       <c r="B290" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>58</v>
@@ -7890,7 +7890,7 @@
         <v>59</v>
       </c>
       <c r="B291" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>58</v>
@@ -7903,7 +7903,7 @@
         <v>59</v>
       </c>
       <c r="B292" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>58</v>
@@ -7916,7 +7916,7 @@
         <v>59</v>
       </c>
       <c r="B293" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>58</v>
@@ -7929,7 +7929,7 @@
         <v>59</v>
       </c>
       <c r="B294" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>58</v>
@@ -7941,7 +7941,7 @@
         <v>59</v>
       </c>
       <c r="B295" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C295" t="s">
         <v>54</v>
@@ -7953,7 +7953,7 @@
         <v>59</v>
       </c>
       <c r="B296" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C296" t="s">
         <v>54</v>
@@ -7966,7 +7966,7 @@
         <v>59</v>
       </c>
       <c r="B297" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C297" t="s">
         <v>54</v>
@@ -7979,7 +7979,7 @@
         <v>59</v>
       </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C298" t="s">
         <v>54</v>
@@ -7992,7 +7992,7 @@
         <v>59</v>
       </c>
       <c r="B299" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C299" t="s">
         <v>54</v>
@@ -8004,7 +8004,7 @@
         <v>59</v>
       </c>
       <c r="B300" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C300" t="s">
         <v>54</v>
@@ -8016,7 +8016,7 @@
         <v>59</v>
       </c>
       <c r="B301" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C301" t="s">
         <v>54</v>
@@ -8028,7 +8028,7 @@
         <v>59</v>
       </c>
       <c r="B302" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C302" t="s">
         <v>54</v>
@@ -8040,7 +8040,7 @@
         <v>59</v>
       </c>
       <c r="B303" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C303" t="s">
         <v>54</v>
@@ -8052,7 +8052,7 @@
         <v>59</v>
       </c>
       <c r="B304" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C304" t="s">
         <v>54</v>
@@ -8065,7 +8065,7 @@
         <v>59</v>
       </c>
       <c r="B305" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C305" t="s">
         <v>54</v>
@@ -8078,7 +8078,7 @@
         <v>59</v>
       </c>
       <c r="B306" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C306" t="s">
         <v>54</v>
@@ -8091,7 +8091,7 @@
         <v>59</v>
       </c>
       <c r="B307" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C307" t="s">
         <v>54</v>
@@ -8103,7 +8103,7 @@
         <v>59</v>
       </c>
       <c r="B308" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C308" t="s">
         <v>54</v>
@@ -8115,7 +8115,7 @@
         <v>59</v>
       </c>
       <c r="B309" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C309" t="s">
         <v>54</v>
@@ -8128,7 +8128,7 @@
         <v>59</v>
       </c>
       <c r="B310" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C310" t="s">
         <v>54</v>
@@ -8141,7 +8141,7 @@
         <v>59</v>
       </c>
       <c r="B311" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C311" t="s">
         <v>54</v>
@@ -8153,7 +8153,7 @@
         <v>59</v>
       </c>
       <c r="B312" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C312" t="s">
         <v>54</v>
@@ -8165,7 +8165,7 @@
         <v>59</v>
       </c>
       <c r="B313" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C313" t="s">
         <v>54</v>
@@ -8178,7 +8178,7 @@
         <v>59</v>
       </c>
       <c r="B314" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C314" t="s">
         <v>54</v>
@@ -8191,7 +8191,7 @@
         <v>59</v>
       </c>
       <c r="B315" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C315" t="s">
         <v>54</v>
@@ -8204,7 +8204,7 @@
         <v>59</v>
       </c>
       <c r="B316" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C316" t="s">
         <v>54</v>
@@ -8216,7 +8216,7 @@
         <v>59</v>
       </c>
       <c r="B317" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C317" t="s">
         <v>54</v>
@@ -8228,7 +8228,7 @@
         <v>59</v>
       </c>
       <c r="B318" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C318" t="s">
         <v>54</v>
@@ -8241,7 +8241,7 @@
         <v>59</v>
       </c>
       <c r="B319" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C319" t="s">
         <v>54</v>
@@ -8254,7 +8254,7 @@
         <v>59</v>
       </c>
       <c r="B320" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C320" t="s">
         <v>54</v>
@@ -8267,7 +8267,7 @@
         <v>59</v>
       </c>
       <c r="B321" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C321" t="s">
         <v>54</v>
@@ -8280,7 +8280,7 @@
         <v>59</v>
       </c>
       <c r="B322" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C322" t="s">
         <v>54</v>
@@ -8293,7 +8293,7 @@
         <v>59</v>
       </c>
       <c r="B323" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C323" t="s">
         <v>54</v>
@@ -8306,7 +8306,7 @@
         <v>59</v>
       </c>
       <c r="B324" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C324" t="s">
         <v>54</v>
@@ -8318,7 +8318,7 @@
         <v>59</v>
       </c>
       <c r="B325" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C325" t="s">
         <v>54</v>
@@ -8330,7 +8330,7 @@
         <v>59</v>
       </c>
       <c r="B326" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C326" t="s">
         <v>54</v>
@@ -8343,7 +8343,7 @@
         <v>59</v>
       </c>
       <c r="B327" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C327" t="s">
         <v>54</v>
@@ -8356,7 +8356,7 @@
         <v>59</v>
       </c>
       <c r="B328" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C328" t="s">
         <v>54</v>
@@ -8369,7 +8369,7 @@
         <v>59</v>
       </c>
       <c r="B329" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C329" t="s">
         <v>54</v>
@@ -8381,7 +8381,7 @@
         <v>59</v>
       </c>
       <c r="B330" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C330" t="s">
         <v>54</v>
@@ -8393,7 +8393,7 @@
         <v>59</v>
       </c>
       <c r="B331" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>58</v>
@@ -8406,7 +8406,7 @@
         <v>59</v>
       </c>
       <c r="B332" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>58</v>
@@ -8419,7 +8419,7 @@
         <v>59</v>
       </c>
       <c r="B333" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>58</v>
@@ -8432,7 +8432,7 @@
         <v>59</v>
       </c>
       <c r="B334" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>58</v>
@@ -8444,7 +8444,7 @@
         <v>59</v>
       </c>
       <c r="B335" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>58</v>
@@ -8456,7 +8456,7 @@
         <v>59</v>
       </c>
       <c r="B336" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>58</v>
@@ -8469,7 +8469,7 @@
         <v>59</v>
       </c>
       <c r="B337" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>58</v>
@@ -8482,7 +8482,7 @@
         <v>59</v>
       </c>
       <c r="B338" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>58</v>
@@ -8495,7 +8495,7 @@
         <v>59</v>
       </c>
       <c r="B339" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>58</v>
@@ -8508,7 +8508,7 @@
         <v>59</v>
       </c>
       <c r="B340" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>58</v>
@@ -8521,7 +8521,7 @@
         <v>59</v>
       </c>
       <c r="B341" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>58</v>
@@ -8534,7 +8534,7 @@
         <v>59</v>
       </c>
       <c r="B342" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>58</v>
@@ -8546,7 +8546,7 @@
         <v>59</v>
       </c>
       <c r="B343" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C343" t="s">
         <v>54</v>
@@ -8558,7 +8558,7 @@
         <v>59</v>
       </c>
       <c r="B344" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C344" t="s">
         <v>54</v>
@@ -8571,7 +8571,7 @@
         <v>59</v>
       </c>
       <c r="B345" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C345" t="s">
         <v>54</v>
@@ -8584,7 +8584,7 @@
         <v>59</v>
       </c>
       <c r="B346" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C346" t="s">
         <v>54</v>
@@ -8597,7 +8597,7 @@
         <v>59</v>
       </c>
       <c r="B347" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C347" t="s">
         <v>54</v>
@@ -8609,7 +8609,7 @@
         <v>59</v>
       </c>
       <c r="B348" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C348" t="s">
         <v>54</v>
@@ -8621,7 +8621,7 @@
         <v>59</v>
       </c>
       <c r="B349" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C349" t="s">
         <v>54</v>
@@ -8634,7 +8634,7 @@
         <v>59</v>
       </c>
       <c r="B350" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C350" t="s">
         <v>54</v>
@@ -8647,7 +8647,7 @@
         <v>59</v>
       </c>
       <c r="B351" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C351" t="s">
         <v>54</v>
@@ -8660,7 +8660,7 @@
         <v>59</v>
       </c>
       <c r="B352" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C352" t="s">
         <v>54</v>
@@ -8672,7 +8672,7 @@
         <v>59</v>
       </c>
       <c r="B353" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C353" t="s">
         <v>54</v>
@@ -8684,7 +8684,7 @@
         <v>59</v>
       </c>
       <c r="B354" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C354" t="s">
         <v>54</v>
@@ -8697,7 +8697,7 @@
         <v>59</v>
       </c>
       <c r="B355" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C355" t="s">
         <v>54</v>
@@ -8710,7 +8710,7 @@
         <v>59</v>
       </c>
       <c r="B356" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C356" t="s">
         <v>54</v>
@@ -8723,7 +8723,7 @@
         <v>59</v>
       </c>
       <c r="B357" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C357" t="s">
         <v>54</v>
@@ -8735,7 +8735,7 @@
         <v>59</v>
       </c>
       <c r="B358" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C358" t="s">
         <v>54</v>
@@ -8747,7 +8747,7 @@
         <v>59</v>
       </c>
       <c r="B359" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C359" t="s">
         <v>54</v>
@@ -8759,7 +8759,7 @@
         <v>59</v>
       </c>
       <c r="B360" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C360" t="s">
         <v>54</v>
@@ -8771,7 +8771,7 @@
         <v>59</v>
       </c>
       <c r="B361" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C361" t="s">
         <v>54</v>
@@ -8783,7 +8783,7 @@
         <v>59</v>
       </c>
       <c r="B362" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C362" t="s">
         <v>54</v>
@@ -8796,7 +8796,7 @@
         <v>59</v>
       </c>
       <c r="B363" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C363" t="s">
         <v>54</v>
@@ -8809,7 +8809,7 @@
         <v>59</v>
       </c>
       <c r="B364" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C364" t="s">
         <v>54</v>
@@ -8822,7 +8822,7 @@
         <v>59</v>
       </c>
       <c r="B365" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C365" t="s">
         <v>54</v>
@@ -8834,7 +8834,7 @@
         <v>59</v>
       </c>
       <c r="B366" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C366" t="s">
         <v>54</v>
@@ -8846,7 +8846,7 @@
         <v>59</v>
       </c>
       <c r="B367" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C367" t="s">
         <v>54</v>
@@ -8859,7 +8859,7 @@
         <v>59</v>
       </c>
       <c r="B368" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C368" t="s">
         <v>54</v>
@@ -8872,7 +8872,7 @@
         <v>59</v>
       </c>
       <c r="B369" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C369" t="s">
         <v>54</v>
@@ -8885,7 +8885,7 @@
         <v>59</v>
       </c>
       <c r="B370" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C370" t="s">
         <v>54</v>
@@ -8897,7 +8897,7 @@
         <v>59</v>
       </c>
       <c r="B371" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C371" t="s">
         <v>54</v>
@@ -8909,7 +8909,7 @@
         <v>59</v>
       </c>
       <c r="B372" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C372" t="s">
         <v>54</v>
@@ -8922,7 +8922,7 @@
         <v>59</v>
       </c>
       <c r="B373" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C373" t="s">
         <v>54</v>
@@ -8935,7 +8935,7 @@
         <v>59</v>
       </c>
       <c r="B374" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C374" t="s">
         <v>54</v>
@@ -8948,7 +8948,7 @@
         <v>59</v>
       </c>
       <c r="B375" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C375" t="s">
         <v>54</v>
@@ -8960,7 +8960,7 @@
         <v>59</v>
       </c>
       <c r="B376" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C376" t="s">
         <v>54</v>
@@ -8972,7 +8972,7 @@
         <v>59</v>
       </c>
       <c r="B377" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C377" t="s">
         <v>54</v>
@@ -8985,7 +8985,7 @@
         <v>59</v>
       </c>
       <c r="B378" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C378" t="s">
         <v>54</v>
@@ -8998,7 +8998,7 @@
         <v>59</v>
       </c>
       <c r="B379" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C379" t="s">
         <v>54</v>
@@ -9011,7 +9011,7 @@
         <v>59</v>
       </c>
       <c r="B380" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>58</v>
@@ -9023,7 +9023,7 @@
         <v>59</v>
       </c>
       <c r="B381" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>58</v>
@@ -9035,7 +9035,7 @@
         <v>59</v>
       </c>
       <c r="B382" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>58</v>
@@ -9048,7 +9048,7 @@
         <v>59</v>
       </c>
       <c r="B383" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>58</v>
@@ -9061,7 +9061,7 @@
         <v>59</v>
       </c>
       <c r="B384" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>58</v>
@@ -9074,7 +9074,7 @@
         <v>59</v>
       </c>
       <c r="B385" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>58</v>
@@ -9086,7 +9086,7 @@
         <v>59</v>
       </c>
       <c r="B386" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C386" t="s">
         <v>54</v>
@@ -9098,7 +9098,7 @@
         <v>59</v>
       </c>
       <c r="B387" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C387" t="s">
         <v>54</v>
@@ -9111,7 +9111,7 @@
         <v>59</v>
       </c>
       <c r="B388" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C388" t="s">
         <v>54</v>
@@ -9124,7 +9124,7 @@
         <v>59</v>
       </c>
       <c r="B389" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C389" t="s">
         <v>54</v>
@@ -9137,7 +9137,7 @@
         <v>59</v>
       </c>
       <c r="B390" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C390" t="s">
         <v>54</v>
@@ -9149,7 +9149,7 @@
         <v>59</v>
       </c>
       <c r="B391" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C391" t="s">
         <v>54</v>
@@ -9161,7 +9161,7 @@
         <v>59</v>
       </c>
       <c r="B392" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C392" t="s">
         <v>54</v>
@@ -9174,7 +9174,7 @@
         <v>59</v>
       </c>
       <c r="B393" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C393" t="s">
         <v>54</v>
@@ -9187,7 +9187,7 @@
         <v>59</v>
       </c>
       <c r="B394" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C394" t="s">
         <v>54</v>
@@ -9200,7 +9200,7 @@
         <v>59</v>
       </c>
       <c r="B395" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C395" t="s">
         <v>54</v>
@@ -9212,7 +9212,7 @@
         <v>59</v>
       </c>
       <c r="B396" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C396" t="s">
         <v>54</v>
@@ -9224,7 +9224,7 @@
         <v>59</v>
       </c>
       <c r="B397" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C397" t="s">
         <v>54</v>
@@ -9236,7 +9236,7 @@
         <v>59</v>
       </c>
       <c r="B398" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C398" t="s">
         <v>54</v>
@@ -9248,7 +9248,7 @@
         <v>59</v>
       </c>
       <c r="B399" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C399" t="s">
         <v>54</v>
@@ -9260,7 +9260,7 @@
         <v>59</v>
       </c>
       <c r="B400" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C400" t="s">
         <v>54</v>
@@ -9273,7 +9273,7 @@
         <v>59</v>
       </c>
       <c r="B401" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C401" t="s">
         <v>54</v>
@@ -9286,7 +9286,7 @@
         <v>59</v>
       </c>
       <c r="B402" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C402" t="s">
         <v>54</v>
@@ -9299,7 +9299,7 @@
         <v>59</v>
       </c>
       <c r="B403" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C403" t="s">
         <v>54</v>
@@ -9311,7 +9311,7 @@
         <v>59</v>
       </c>
       <c r="B404" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C404" t="s">
         <v>54</v>
@@ -9323,7 +9323,7 @@
         <v>59</v>
       </c>
       <c r="B405" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C405" t="s">
         <v>54</v>
@@ -9336,7 +9336,7 @@
         <v>59</v>
       </c>
       <c r="B406" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C406" t="s">
         <v>54</v>
@@ -9349,7 +9349,7 @@
         <v>59</v>
       </c>
       <c r="B407" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C407" s="8" t="s">
         <v>55</v>
@@ -9362,7 +9362,7 @@
         <v>59</v>
       </c>
       <c r="B408" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C408" s="8" t="s">
         <v>55</v>
@@ -9374,7 +9374,7 @@
         <v>59</v>
       </c>
       <c r="B409" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C409" s="8" t="s">
         <v>55</v>
@@ -9386,7 +9386,7 @@
         <v>59</v>
       </c>
       <c r="B410" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C410" s="8" t="s">
         <v>55</v>
@@ -9399,7 +9399,7 @@
         <v>59</v>
       </c>
       <c r="B411" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C411" s="8" t="s">
         <v>55</v>
@@ -9412,7 +9412,7 @@
         <v>59</v>
       </c>
       <c r="B412" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>55</v>
